--- a/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA89F2F-1494-4C2B-8234-66FB665D7AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC59ECD8-9822-44D6-95DC-D42B431AC821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -2405,12 +2405,12 @@
       <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2420,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>-138.1425045756713</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>-141.4337851750779</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>-145.72506577448451</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>-149.2163463738911</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5655,18 +5655,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D502F58C-6151-4AA4-A07E-4B16369BF79A}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5676,7 +5676,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5781,14 +5781,22 @@
         <f>MAX(0,G3-$I$5-$I$8+0)</f>
         <v>0.30871940059334779</v>
       </c>
+      <c r="L3">
+        <f>IF(K3=0,0,COUNTIF($K$3:K3,"&lt;&gt;0"))</f>
+        <v>1</v>
+      </c>
       <c r="M3">
-        <f>G3-($I$5-$I$8)</f>
+        <f t="shared" ref="M3:M47" si="0">G3-($I$5-$I$8)</f>
         <v>4.4912805994065934</v>
       </c>
       <c r="N3">
         <f>MIN(0,G3-($I$5-$I$8)+0)</f>
         <v>0</v>
       </c>
+      <c r="O3">
+        <f>IF(N3=0,0,COUNTIF($N$3:N3,"&lt;&gt;0"))</f>
+        <v>0</v>
+      </c>
       <c r="P3">
         <v>46</v>
       </c>
@@ -5808,11 +5816,11 @@
         <v>351</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V22" si="0">AVERAGE(Q3:U3)</f>
+        <f t="shared" ref="V3:V22" si="1">AVERAGE(Q3:U3)</f>
         <v>349.2</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5832,7 +5840,7 @@
         <v>354</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ref="G4:G47" si="1">AVERAGE(B4:F4)</f>
+        <f t="shared" ref="G4:G47" si="2">AVERAGE(B4:F4)</f>
         <v>353.4</v>
       </c>
       <c r="H4" t="s">
@@ -5843,19 +5851,27 @@
         <v>4.1825611988132589</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J47" si="2">G4-($I$5+$I$8)</f>
+        <f t="shared" ref="J4:J47" si="3">G4-($I$5+$I$8)</f>
         <v>1.3087194005933611</v>
       </c>
       <c r="K4">
-        <f>MAX(0,G4-$I$5-$I$8+K3)</f>
+        <f t="shared" ref="K4:K47" si="4">MAX(0,G4-$I$5-$I$8+K3)</f>
         <v>1.6174388011866956</v>
       </c>
+      <c r="L4">
+        <f>IF(K4=0,0,COUNTIF($K$3:K4,"&lt;&gt;0"))</f>
+        <v>2</v>
+      </c>
       <c r="M4">
-        <f>G4-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>5.4912805994065934</v>
       </c>
       <c r="N4">
-        <f>MIN(0,G4-($I$5-$I$8)+N3)</f>
+        <f t="shared" ref="N4:N47" si="5">MIN(0,G4-($I$5-$I$8)+N3)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>IF(N4=0,0,COUNTIF($N$3:N4,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P4">
@@ -5877,11 +5893,11 @@
         <v>351</v>
       </c>
       <c r="V4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.6</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5901,7 +5917,7 @@
         <v>353</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351.6</v>
       </c>
       <c r="H5" t="s">
@@ -5911,19 +5927,27 @@
         <v>350</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.49128059940659341</v>
       </c>
       <c r="K5">
-        <f>MAX(0,G5-$I$5-$I$8+K4)</f>
+        <f t="shared" si="4"/>
         <v>1.1261582017800889</v>
       </c>
+      <c r="L5">
+        <f>IF(K5=0,0,COUNTIF($K$3:K5,"&lt;&gt;0"))</f>
+        <v>3</v>
+      </c>
       <c r="M5">
-        <f>G5-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>3.6912805994066389</v>
       </c>
       <c r="N5">
-        <f>MIN(0,G5-($I$5-$I$8)+N4)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>IF(N5=0,0,COUNTIF($N$3:N5,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P5">
@@ -5945,11 +5969,11 @@
         <v>345</v>
       </c>
       <c r="V5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>343.2</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5969,7 +5993,7 @@
         <v>356</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>355.2</v>
       </c>
       <c r="H6" t="s">
@@ -5979,19 +6003,27 @@
         <v>0.5</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.1087194005933725</v>
       </c>
       <c r="K6">
-        <f>MAX(0,G6-$I$5-$I$8+K5)</f>
+        <f t="shared" si="4"/>
         <v>4.234877602373448</v>
       </c>
+      <c r="L6">
+        <f>IF(K6=0,0,COUNTIF($K$3:K6,"&lt;&gt;0"))</f>
+        <v>4</v>
+      </c>
       <c r="M6">
-        <f>G6-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>7.2912805994066048</v>
       </c>
       <c r="N6">
-        <f>MIN(0,G6-($I$5-$I$8)+N5)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>IF(N6=0,0,COUNTIF($N$3:N6,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P6">
@@ -6013,11 +6045,11 @@
         <v>345</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>343.6</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6037,7 +6069,7 @@
         <v>353</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351.4</v>
       </c>
       <c r="H7" t="s">
@@ -6047,19 +6079,27 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.69128059940663888</v>
       </c>
       <c r="K7">
-        <f>MAX(0,G7-$I$5-$I$8+K6)</f>
+        <f t="shared" si="4"/>
         <v>3.5435970029667958</v>
       </c>
+      <c r="L7">
+        <f>IF(K7=0,0,COUNTIF($K$3:K7,"&lt;&gt;0"))</f>
+        <v>5</v>
+      </c>
       <c r="M7">
-        <f>G7-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>3.4912805994065934</v>
       </c>
       <c r="N7">
-        <f>MIN(0,G7-($I$5-$I$8)+N6)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>IF(N7=0,0,COUNTIF($N$3:N7,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P7">
@@ -6081,11 +6121,11 @@
         <v>350</v>
       </c>
       <c r="V7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.2</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6105,7 +6145,7 @@
         <v>352</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350.4</v>
       </c>
       <c r="H8" s="8" t="s">
@@ -6116,19 +6156,27 @@
         <v>2.0912805994066295</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.6912805994066389</v>
       </c>
       <c r="K8">
-        <f>MAX(0,G8-$I$5-$I$8+K7)</f>
+        <f t="shared" si="4"/>
         <v>1.8523164035601436</v>
       </c>
+      <c r="L8">
+        <f>IF(K8=0,0,COUNTIF($K$3:K8,"&lt;&gt;0"))</f>
+        <v>6</v>
+      </c>
       <c r="M8">
-        <f>G8-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>2.4912805994065934</v>
       </c>
       <c r="N8">
-        <f>MIN(0,G8-($I$5-$I$8)+N7)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>IF(N8=0,0,COUNTIF($N$3:N8,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P8">
@@ -6150,11 +6198,11 @@
         <v>350</v>
       </c>
       <c r="V8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.4</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6174,7 +6222,7 @@
         <v>355</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>353.6</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -6185,19 +6233,27 @@
         <v>20.912805994066296</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5087194005934066</v>
       </c>
       <c r="K9">
-        <f>MAX(0,G9-$I$5-$I$8+K8)</f>
+        <f t="shared" si="4"/>
         <v>3.3610358041535369</v>
       </c>
+      <c r="L9">
+        <f>IF(K9=0,0,COUNTIF($K$3:K9,"&lt;&gt;0"))</f>
+        <v>7</v>
+      </c>
       <c r="M9">
-        <f>G9-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>5.6912805994066389</v>
       </c>
       <c r="N9">
-        <f>MIN(0,G9-($I$5-$I$8)+N8)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>IF(N9=0,0,COUNTIF($N$3:N9,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P9">
@@ -6219,11 +6275,11 @@
         <v>356</v>
       </c>
       <c r="V9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>354.6</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6243,23 +6299,31 @@
         <v>353</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351.8</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.29128059940660478</v>
       </c>
       <c r="K10">
-        <f>MAX(0,G10-$I$5-$I$8+K9)</f>
+        <f t="shared" si="4"/>
         <v>3.0697552047469188</v>
       </c>
+      <c r="L10">
+        <f>IF(K10=0,0,COUNTIF($K$3:K10,"&lt;&gt;0"))</f>
+        <v>8</v>
+      </c>
       <c r="M10">
-        <f>G10-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>3.8912805994066275</v>
       </c>
       <c r="N10">
-        <f>MIN(0,G10-($I$5-$I$8)+N9)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>IF(N10=0,0,COUNTIF($N$3:N10,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P10">
@@ -6281,11 +6345,11 @@
         <v>350</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="0"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6305,23 +6369,31 @@
         <v>354</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>353.4</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3087194005933611</v>
       </c>
       <c r="K11">
-        <f>MAX(0,G11-$I$5-$I$8+K10)</f>
+        <f t="shared" si="4"/>
         <v>4.3784746053402666</v>
       </c>
+      <c r="L11">
+        <f>IF(K11=0,0,COUNTIF($K$3:K11,"&lt;&gt;0"))</f>
+        <v>9</v>
+      </c>
       <c r="M11">
-        <f>G11-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>5.4912805994065934</v>
       </c>
       <c r="N11">
-        <f>MIN(0,G11-($I$5-$I$8)+N10)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>IF(N11=0,0,COUNTIF($N$3:N11,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P11">
@@ -6343,11 +6415,11 @@
         <v>352</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350.4</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6367,23 +6439,31 @@
         <v>354</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>352.6</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50871940059340659</v>
       </c>
       <c r="K12">
-        <f>MAX(0,G12-$I$5-$I$8+K11)</f>
+        <f t="shared" si="4"/>
         <v>4.8871940059336598</v>
       </c>
+      <c r="L12">
+        <f>IF(K12=0,0,COUNTIF($K$3:K12,"&lt;&gt;0"))</f>
+        <v>10</v>
+      </c>
       <c r="M12">
-        <f>G12-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>4.6912805994066389</v>
       </c>
       <c r="N12">
-        <f>MIN(0,G12-($I$5-$I$8)+N11)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>IF(N12=0,0,COUNTIF($N$3:N12,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P12">
@@ -6405,11 +6485,11 @@
         <v>351</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.8</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6429,23 +6509,31 @@
         <v>353</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>352.4</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.30871940059336112</v>
       </c>
       <c r="K13">
-        <f>MAX(0,G13-$I$5-$I$8+K12)</f>
+        <f t="shared" si="4"/>
         <v>5.1959134065270076</v>
       </c>
+      <c r="L13">
+        <f>IF(K13=0,0,COUNTIF($K$3:K13,"&lt;&gt;0"))</f>
+        <v>11</v>
+      </c>
       <c r="M13">
-        <f>G13-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>4.4912805994065934</v>
       </c>
       <c r="N13">
-        <f>MIN(0,G13-($I$5-$I$8)+N12)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f>IF(N13=0,0,COUNTIF($N$3:N13,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P13">
@@ -6467,11 +6555,11 @@
         <v>356</v>
       </c>
       <c r="V13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.4</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6491,23 +6579,31 @@
         <v>353</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351.8</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.29128059940660478</v>
       </c>
       <c r="K14">
-        <f>MAX(0,G14-$I$5-$I$8+K13)</f>
+        <f t="shared" si="4"/>
         <v>4.9046328071203895</v>
       </c>
+      <c r="L14">
+        <f>IF(K14=0,0,COUNTIF($K$3:K14,"&lt;&gt;0"))</f>
+        <v>12</v>
+      </c>
       <c r="M14">
-        <f>G14-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>3.8912805994066275</v>
       </c>
       <c r="N14">
-        <f>MIN(0,G14-($I$5-$I$8)+N13)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>IF(N14=0,0,COUNTIF($N$3:N14,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P14">
@@ -6529,11 +6625,11 @@
         <v>355</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.2</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6553,23 +6649,31 @@
         <v>351</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350.8</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2912805994066048</v>
       </c>
       <c r="K15">
-        <f>MAX(0,G15-$I$5-$I$8+K14)</f>
+        <f t="shared" si="4"/>
         <v>3.6133522077137714</v>
       </c>
+      <c r="L15">
+        <f>IF(K15=0,0,COUNTIF($K$3:K15,"&lt;&gt;0"))</f>
+        <v>13</v>
+      </c>
       <c r="M15">
-        <f>G15-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>2.8912805994066275</v>
       </c>
       <c r="N15">
-        <f>MIN(0,G15-($I$5-$I$8)+N14)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>IF(N15=0,0,COUNTIF($N$3:N15,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P15">
@@ -6591,11 +6695,11 @@
         <v>348</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6615,23 +6719,31 @@
         <v>352</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351.8</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.29128059940660478</v>
       </c>
       <c r="K16">
-        <f>MAX(0,G16-$I$5-$I$8+K15)</f>
+        <f t="shared" si="4"/>
         <v>3.3220716083071533</v>
       </c>
+      <c r="L16">
+        <f>IF(K16=0,0,COUNTIF($K$3:K16,"&lt;&gt;0"))</f>
+        <v>14</v>
+      </c>
       <c r="M16">
-        <f>G16-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>3.8912805994066275</v>
       </c>
       <c r="N16">
-        <f>MIN(0,G16-($I$5-$I$8)+N15)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>IF(N16=0,0,COUNTIF($N$3:N16,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P16">
@@ -6653,14 +6765,14 @@
         <v>349</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>347.8</v>
       </c>
       <c r="AB16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6680,23 +6792,31 @@
         <v>354</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>352.6</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.50871940059340659</v>
       </c>
       <c r="K17">
-        <f>MAX(0,G17-$I$5-$I$8+K16)</f>
+        <f t="shared" si="4"/>
         <v>3.8307910089005466</v>
       </c>
+      <c r="L17">
+        <f>IF(K17=0,0,COUNTIF($K$3:K17,"&lt;&gt;0"))</f>
+        <v>15</v>
+      </c>
       <c r="M17">
-        <f>G17-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>4.6912805994066389</v>
       </c>
       <c r="N17">
-        <f>MIN(0,G17-($I$5-$I$8)+N16)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f>IF(N17=0,0,COUNTIF($N$3:N17,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P17">
@@ -6718,11 +6838,11 @@
         <v>353</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350.4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6742,23 +6862,31 @@
         <v>351</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.0912805994066161</v>
       </c>
       <c r="K18">
-        <f>MAX(0,G18-$I$5-$I$8+K17)</f>
+        <f t="shared" si="4"/>
         <v>2.7395104094939171</v>
       </c>
+      <c r="L18">
+        <f>IF(K18=0,0,COUNTIF($K$3:K18,"&lt;&gt;0"))</f>
+        <v>16</v>
+      </c>
       <c r="M18">
-        <f>G18-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>3.0912805994066161</v>
       </c>
       <c r="N18">
-        <f>MIN(0,G18-($I$5-$I$8)+N17)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f>IF(N18=0,0,COUNTIF($N$3:N18,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P18">
@@ -6780,11 +6908,11 @@
         <v>351</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.8</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6804,23 +6932,31 @@
         <v>354</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>352.8</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.70871940059339522</v>
       </c>
       <c r="K19">
-        <f>MAX(0,G19-$I$5-$I$8+K18)</f>
+        <f t="shared" si="4"/>
         <v>3.448229810087299</v>
       </c>
+      <c r="L19">
+        <f>IF(K19=0,0,COUNTIF($K$3:K19,"&lt;&gt;0"))</f>
+        <v>17</v>
+      </c>
       <c r="M19">
-        <f>G19-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>4.8912805994066275</v>
       </c>
       <c r="N19">
-        <f>MIN(0,G19-($I$5-$I$8)+N18)</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>IF(N19=0,0,COUNTIF($N$3:N19,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="P19">
@@ -6842,11 +6978,11 @@
         <v>351</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>349.8</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6866,24 +7002,32 @@
         <v>340</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>339.4</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12.691280599406639</v>
       </c>
       <c r="K20">
-        <f>MAX(0,G20-$I$5-$I$8+K19)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>IF(K20=0,0,COUNTIF($K$3:K20,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>G20-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-8.5087194005934066</v>
       </c>
       <c r="N20">
-        <f>MIN(0,G20-($I$5-$I$8)+N19)</f>
+        <f t="shared" si="5"/>
         <v>-8.5087194005934066</v>
+      </c>
+      <c r="O20">
+        <f>IF(N20=0,0,COUNTIF($N$3:N20,"&lt;&gt;0"))</f>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>63</v>
@@ -6904,11 +7048,11 @@
         <v>348</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>346.6</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6928,24 +7072,32 @@
         <v>345</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345.4</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.6912805994066389</v>
       </c>
       <c r="K21">
-        <f>MAX(0,G21-$I$5-$I$8+K20)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>IF(K21=0,0,COUNTIF($K$3:K21,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M21">
-        <f>G21-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-2.5087194005934066</v>
       </c>
       <c r="N21">
-        <f>MIN(0,G21-($I$5-$I$8)+N20)</f>
+        <f t="shared" si="5"/>
         <v>-11.017438801186813</v>
+      </c>
+      <c r="O21">
+        <f>IF(N21=0,0,COUNTIF($N$3:N21,"&lt;&gt;0"))</f>
+        <v>2</v>
       </c>
       <c r="P21">
         <v>64</v>
@@ -6966,11 +7118,11 @@
         <v>350</v>
       </c>
       <c r="V21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>348.6</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6990,24 +7142,32 @@
         <v>345</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>343.6</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.4912805994065934</v>
       </c>
       <c r="K22">
-        <f>MAX(0,G22-$I$5-$I$8+K21)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>IF(K22=0,0,COUNTIF($K$3:K22,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M22">
-        <f>G22-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-4.3087194005933611</v>
       </c>
       <c r="N22">
-        <f>MIN(0,G22-($I$5-$I$8)+N21)</f>
+        <f t="shared" si="5"/>
         <v>-15.326158201780174</v>
+      </c>
+      <c r="O22">
+        <f>IF(N22=0,0,COUNTIF($N$3:N22,"&lt;&gt;0"))</f>
+        <v>3</v>
       </c>
       <c r="P22">
         <v>65</v>
@@ -7028,11 +7188,11 @@
         <v>352</v>
       </c>
       <c r="V22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>350.6</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7052,24 +7212,32 @@
         <v>345</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.0912805994066161</v>
       </c>
       <c r="K23">
-        <f>MAX(0,G23-$I$5-$I$8+K22)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>IF(K23=0,0,COUNTIF($K$3:K23,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M23">
-        <f>G23-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-2.9087194005933839</v>
       </c>
       <c r="N23">
-        <f>MIN(0,G23-($I$5-$I$8)+N22)</f>
+        <f t="shared" si="5"/>
         <v>-18.234877602373558</v>
+      </c>
+      <c r="O23">
+        <f>IF(N23=0,0,COUNTIF($N$3:N23,"&lt;&gt;0"))</f>
+        <v>4</v>
       </c>
       <c r="P23">
         <v>66</v>
@@ -7090,11 +7258,11 @@
         <v>349</v>
       </c>
       <c r="V23" s="1">
-        <f t="shared" ref="V23:V42" si="3">AVERAGE(Q23:U23)</f>
+        <f t="shared" ref="V23:V42" si="6">AVERAGE(Q23:U23)</f>
         <v>347.8</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7114,24 +7282,32 @@
         <v>347</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>346</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.0912805994066161</v>
       </c>
       <c r="K24">
-        <f>MAX(0,G24-$I$5-$I$8+K23)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>IF(K24=0,0,COUNTIF($K$3:K24,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <f>G24-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-1.9087194005933839</v>
       </c>
       <c r="N24">
-        <f>MIN(0,G24-($I$5-$I$8)+N23)</f>
+        <f t="shared" si="5"/>
         <v>-20.143597002966942</v>
+      </c>
+      <c r="O24">
+        <f>IF(N24=0,0,COUNTIF($N$3:N24,"&lt;&gt;0"))</f>
+        <v>5</v>
       </c>
       <c r="P24">
         <v>67</v>
@@ -7152,11 +7328,11 @@
         <v>349</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>348.4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7176,24 +7352,32 @@
         <v>350</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.0912805994066161</v>
       </c>
       <c r="K25">
-        <f>MAX(0,G25-$I$5-$I$8+K24)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>IF(K25=0,0,COUNTIF($K$3:K25,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M25">
-        <f>G25-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>9.1280599406616147E-2</v>
       </c>
       <c r="N25">
-        <f>MIN(0,G25-($I$5-$I$8)+N24)</f>
+        <f t="shared" si="5"/>
         <v>-20.052316403560326</v>
+      </c>
+      <c r="O25">
+        <f>IF(N25=0,0,COUNTIF($N$3:N25,"&lt;&gt;0"))</f>
+        <v>6</v>
       </c>
       <c r="P25">
         <v>68</v>
@@ -7214,11 +7398,11 @@
         <v>348</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>347.4</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7238,24 +7422,32 @@
         <v>350</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348.2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.8912805994066275</v>
       </c>
       <c r="K26">
-        <f>MAX(0,G26-$I$5-$I$8+K25)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>IF(K26=0,0,COUNTIF($K$3:K26,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>G26-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>0.29128059940660478</v>
       </c>
       <c r="N26">
-        <f>MIN(0,G26-($I$5-$I$8)+N25)</f>
+        <f t="shared" si="5"/>
         <v>-19.761035804153721</v>
+      </c>
+      <c r="O26">
+        <f>IF(N26=0,0,COUNTIF($N$3:N26,"&lt;&gt;0"))</f>
+        <v>7</v>
       </c>
       <c r="P26">
         <v>69</v>
@@ -7276,11 +7468,11 @@
         <v>348</v>
       </c>
       <c r="V26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>346.8</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7300,24 +7492,32 @@
         <v>349</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>347.4</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.6912805994066389</v>
       </c>
       <c r="K27">
-        <f>MAX(0,G27-$I$5-$I$8+K26)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>IF(K27=0,0,COUNTIF($K$3:K27,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>G27-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-0.50871940059340659</v>
       </c>
       <c r="N27">
-        <f>MIN(0,G27-($I$5-$I$8)+N26)</f>
+        <f t="shared" si="5"/>
         <v>-20.269755204747128</v>
+      </c>
+      <c r="O27">
+        <f>IF(N27=0,0,COUNTIF($N$3:N27,"&lt;&gt;0"))</f>
+        <v>8</v>
       </c>
       <c r="P27">
         <v>70</v>
@@ -7338,11 +7538,11 @@
         <v>347</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7362,24 +7562,32 @@
         <v>346</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>344.4</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.6912805994066389</v>
       </c>
       <c r="K28">
-        <f>MAX(0,G28-$I$5-$I$8+K27)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>IF(K28=0,0,COUNTIF($K$3:K28,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>G28-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-3.5087194005934066</v>
       </c>
       <c r="N28">
-        <f>MIN(0,G28-($I$5-$I$8)+N27)</f>
+        <f t="shared" si="5"/>
         <v>-23.778474605340534</v>
+      </c>
+      <c r="O28">
+        <f>IF(N28=0,0,COUNTIF($N$3:N28,"&lt;&gt;0"))</f>
+        <v>9</v>
       </c>
       <c r="P28">
         <v>71</v>
@@ -7400,11 +7608,11 @@
         <v>350</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>348.8</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7424,24 +7632,32 @@
         <v>339</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>337.4</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-14.691280599406639</v>
       </c>
       <c r="K29">
-        <f>MAX(0,G29-$I$5-$I$8+K28)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>IF(K29=0,0,COUNTIF($K$3:K29,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M29">
-        <f>G29-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-10.508719400593407</v>
       </c>
       <c r="N29">
-        <f>MIN(0,G29-($I$5-$I$8)+N28)</f>
+        <f t="shared" si="5"/>
         <v>-34.287194005933941</v>
+      </c>
+      <c r="O29">
+        <f>IF(N29=0,0,COUNTIF($N$3:N29,"&lt;&gt;0"))</f>
+        <v>10</v>
       </c>
       <c r="P29">
         <v>72</v>
@@ -7462,11 +7678,11 @@
         <v>340</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>338.4</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7486,24 +7702,32 @@
         <v>346</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>344.6</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.4912805994065934</v>
       </c>
       <c r="K30">
-        <f>MAX(0,G30-$I$5-$I$8+K29)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>IF(K30=0,0,COUNTIF($K$3:K30,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M30">
-        <f>G30-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-3.3087194005933611</v>
       </c>
       <c r="N30">
-        <f>MIN(0,G30-($I$5-$I$8)+N29)</f>
+        <f t="shared" si="5"/>
         <v>-37.595913406527302</v>
+      </c>
+      <c r="O30">
+        <f>IF(N30=0,0,COUNTIF($N$3:N30,"&lt;&gt;0"))</f>
+        <v>11</v>
       </c>
       <c r="P30">
         <v>73</v>
@@ -7524,11 +7748,11 @@
         <v>349</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>347.8</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7548,24 +7772,32 @@
         <v>348</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345.8</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.2912805994066048</v>
       </c>
       <c r="K31">
-        <f>MAX(0,G31-$I$5-$I$8+K30)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>IF(K31=0,0,COUNTIF($K$3:K31,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <f>G31-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-2.1087194005933725</v>
       </c>
       <c r="N31">
-        <f>MIN(0,G31-($I$5-$I$8)+N30)</f>
+        <f t="shared" si="5"/>
         <v>-39.704632807120674</v>
+      </c>
+      <c r="O31">
+        <f>IF(N31=0,0,COUNTIF($N$3:N31,"&lt;&gt;0"))</f>
+        <v>12</v>
       </c>
       <c r="P31">
         <v>74</v>
@@ -7586,11 +7818,11 @@
         <v>348</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>347.6</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7610,24 +7842,32 @@
         <v>346</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.0912805994066161</v>
       </c>
       <c r="K32">
-        <f>MAX(0,G32-$I$5-$I$8+K31)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>IF(K32=0,0,COUNTIF($K$3:K32,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M32">
-        <f>G32-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-2.9087194005933839</v>
       </c>
       <c r="N32">
-        <f>MIN(0,G32-($I$5-$I$8)+N31)</f>
+        <f t="shared" si="5"/>
         <v>-42.613352207714058</v>
+      </c>
+      <c r="O32">
+        <f>IF(N32=0,0,COUNTIF($N$3:N32,"&lt;&gt;0"))</f>
+        <v>13</v>
       </c>
       <c r="P32">
         <v>75</v>
@@ -7648,11 +7888,11 @@
         <v>347</v>
       </c>
       <c r="V32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7672,24 +7912,32 @@
         <v>347</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>345.2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.8912805994066275</v>
       </c>
       <c r="K33">
-        <f>MAX(0,G33-$I$5-$I$8+K32)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>IF(K33=0,0,COUNTIF($K$3:K33,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M33">
-        <f>G33-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-2.7087194005933952</v>
       </c>
       <c r="N33">
-        <f>MIN(0,G33-($I$5-$I$8)+N32)</f>
+        <f t="shared" si="5"/>
         <v>-45.322071608307454</v>
+      </c>
+      <c r="O33">
+        <f>IF(N33=0,0,COUNTIF($N$3:N33,"&lt;&gt;0"))</f>
+        <v>14</v>
       </c>
       <c r="P33">
         <v>76</v>
@@ -7710,11 +7958,11 @@
         <v>349</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>347.6</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7734,24 +7982,32 @@
         <v>350</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348.8</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.2912805994066048</v>
       </c>
       <c r="K34">
-        <f>MAX(0,G34-$I$5-$I$8+K33)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>IF(K34=0,0,COUNTIF($K$3:K34,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M34">
-        <f>G34-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>0.89128059940662752</v>
       </c>
       <c r="N34">
-        <f>MIN(0,G34-($I$5-$I$8)+N33)</f>
+        <f t="shared" si="5"/>
         <v>-44.430791008900826</v>
+      </c>
+      <c r="O34">
+        <f>IF(N34=0,0,COUNTIF($N$3:N34,"&lt;&gt;0"))</f>
+        <v>15</v>
       </c>
       <c r="P34">
         <v>77</v>
@@ -7772,11 +8028,11 @@
         <v>348</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>346.6</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7796,24 +8052,32 @@
         <v>349</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>349.2</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.8912805994066275</v>
       </c>
       <c r="K35">
-        <f>MAX(0,G35-$I$5-$I$8+K34)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>IF(K35=0,0,COUNTIF($K$3:K35,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M35">
-        <f>G35-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>1.2912805994066048</v>
       </c>
       <c r="N35">
-        <f>MIN(0,G35-($I$5-$I$8)+N34)</f>
+        <f t="shared" si="5"/>
         <v>-43.139510409494221</v>
+      </c>
+      <c r="O35">
+        <f>IF(N35=0,0,COUNTIF($N$3:N35,"&lt;&gt;0"))</f>
+        <v>16</v>
       </c>
       <c r="P35">
         <v>78</v>
@@ -7834,11 +8098,11 @@
         <v>350</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7858,24 +8122,32 @@
         <v>349</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>347.6</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.4912805994065934</v>
       </c>
       <c r="K36">
-        <f>MAX(0,G36-$I$5-$I$8+K35)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>IF(K36=0,0,COUNTIF($K$3:K36,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M36">
-        <f>G36-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-0.30871940059336112</v>
       </c>
       <c r="N36">
-        <f>MIN(0,G36-($I$5-$I$8)+N35)</f>
+        <f t="shared" si="5"/>
         <v>-43.448229810087582</v>
+      </c>
+      <c r="O36">
+        <f>IF(N36=0,0,COUNTIF($N$3:N36,"&lt;&gt;0"))</f>
+        <v>17</v>
       </c>
       <c r="P36">
         <v>79</v>
@@ -7896,11 +8168,11 @@
         <v>351</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>349.8</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7920,24 +8192,32 @@
         <v>348</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>347.6</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.4912805994065934</v>
       </c>
       <c r="K37">
-        <f>MAX(0,G37-$I$5-$I$8+K36)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>IF(K37=0,0,COUNTIF($K$3:K37,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M37">
-        <f>G37-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-0.30871940059336112</v>
       </c>
       <c r="N37">
-        <f>MIN(0,G37-($I$5-$I$8)+N36)</f>
+        <f t="shared" si="5"/>
         <v>-43.756949210680943</v>
+      </c>
+      <c r="O37">
+        <f>IF(N37=0,0,COUNTIF($N$3:N37,"&lt;&gt;0"))</f>
+        <v>18</v>
       </c>
       <c r="P37">
         <v>80</v>
@@ -7958,11 +8238,11 @@
         <v>351</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>349.6</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -7982,24 +8262,32 @@
         <v>359</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>354.6</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.5087194005934066</v>
       </c>
       <c r="K38">
-        <f>MAX(0,G38-$I$5-$I$8+K37)</f>
+        <f t="shared" si="4"/>
         <v>2.5087194005933933</v>
       </c>
+      <c r="L38">
+        <f>IF(K38=0,0,COUNTIF(K38:K38,"&lt;&gt;0"))</f>
+        <v>1</v>
+      </c>
       <c r="M38">
-        <f>G38-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>6.6912805994066389</v>
       </c>
       <c r="N38">
-        <f>MIN(0,G38-($I$5-$I$8)+N37)</f>
+        <f t="shared" si="5"/>
         <v>-37.065668611274305</v>
+      </c>
+      <c r="O38">
+        <f>IF(N38=0,0,COUNTIF($N$3:N38,"&lt;&gt;0"))</f>
+        <v>19</v>
       </c>
       <c r="P38">
         <v>81</v>
@@ -8020,11 +8308,11 @@
         <v>350</v>
       </c>
       <c r="V38" s="1">
-        <f t="shared" si="3"/>
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8044,24 +8332,32 @@
         <v>345</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>344.2</v>
       </c>
       <c r="J39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.8912805994066275</v>
       </c>
       <c r="K39">
-        <f>MAX(0,G39-$I$5-$I$8+K38)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" ref="L39:L47" si="7">IF(K39=0,0,COUNTIF(K39:K39,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M39">
-        <f>G39-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-3.7087194005933952</v>
       </c>
       <c r="N39">
-        <f>MIN(0,G39-($I$5-$I$8)+N38)</f>
+        <f t="shared" si="5"/>
         <v>-40.7743880118677</v>
+      </c>
+      <c r="O39">
+        <f>IF(N39=0,0,COUNTIF($N$3:N39,"&lt;&gt;0"))</f>
+        <v>20</v>
       </c>
       <c r="P39">
         <v>82</v>
@@ -8082,11 +8378,11 @@
         <v>350</v>
       </c>
       <c r="V39" s="1">
-        <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8106,24 +8402,32 @@
         <v>354</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351.6</v>
       </c>
       <c r="J40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.49128059940659341</v>
       </c>
       <c r="K40">
-        <f>MAX(0,G40-$I$5-$I$8+K39)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f>G40-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>3.6912805994066389</v>
       </c>
       <c r="N40">
-        <f>MIN(0,G40-($I$5-$I$8)+N39)</f>
+        <f t="shared" si="5"/>
         <v>-37.083107412461061</v>
+      </c>
+      <c r="O40">
+        <f>IF(N40=0,0,COUNTIF($N$3:N40,"&lt;&gt;0"))</f>
+        <v>21</v>
       </c>
       <c r="P40">
         <v>83</v>
@@ -8144,11 +8448,11 @@
         <v>347</v>
       </c>
       <c r="V40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>346.6</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8168,24 +8472,32 @@
         <v>344</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>342.2</v>
       </c>
       <c r="J41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.8912805994066275</v>
       </c>
       <c r="K41">
-        <f>MAX(0,G41-$I$5-$I$8+K40)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f>G41-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-5.7087194005933952</v>
       </c>
       <c r="N41">
-        <f>MIN(0,G41-($I$5-$I$8)+N40)</f>
+        <f t="shared" si="5"/>
         <v>-42.791826813054456</v>
+      </c>
+      <c r="O41">
+        <f>IF(N41=0,0,COUNTIF($N$3:N41,"&lt;&gt;0"))</f>
+        <v>22</v>
       </c>
       <c r="P41">
         <v>84</v>
@@ -8206,11 +8518,11 @@
         <v>352</v>
       </c>
       <c r="V41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>350.4</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8230,24 +8542,32 @@
         <v>351</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>349</v>
       </c>
       <c r="J42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.0912805994066161</v>
       </c>
       <c r="K42">
-        <f>MAX(0,G42-$I$5-$I$8+K41)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f>G42-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>1.0912805994066161</v>
       </c>
       <c r="N42">
-        <f>MIN(0,G42-($I$5-$I$8)+N41)</f>
+        <f t="shared" si="5"/>
         <v>-41.70054621364784</v>
+      </c>
+      <c r="O42">
+        <f>IF(N42=0,0,COUNTIF($N$3:N42,"&lt;&gt;0"))</f>
+        <v>23</v>
       </c>
       <c r="P42">
         <v>85</v>
@@ -8268,11 +8588,11 @@
         <v>351</v>
       </c>
       <c r="V42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>348.6</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8292,27 +8612,35 @@
         <v>350</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348.4</v>
       </c>
       <c r="J43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.6912805994066389</v>
       </c>
       <c r="K43">
-        <f>MAX(0,G43-$I$5-$I$8+K42)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f>G43-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>0.49128059940659341</v>
       </c>
       <c r="N43">
-        <f>MIN(0,G43-($I$5-$I$8)+N42)</f>
+        <f t="shared" si="5"/>
         <v>-41.209265614241247</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <f>IF(N43=0,0,COUNTIF($N$3:N43,"&lt;&gt;0"))</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8332,27 +8660,35 @@
         <v>349</v>
       </c>
       <c r="G44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348.8</v>
       </c>
       <c r="J44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.2912805994066048</v>
       </c>
       <c r="K44">
-        <f>MAX(0,G44-$I$5-$I$8+K43)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f>G44-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>0.89128059940662752</v>
       </c>
       <c r="N44">
-        <f>MIN(0,G44-($I$5-$I$8)+N43)</f>
+        <f t="shared" si="5"/>
         <v>-40.317985014834619</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <f>IF(N44=0,0,COUNTIF($N$3:N44,"&lt;&gt;0"))</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8372,27 +8708,35 @@
         <v>349</v>
       </c>
       <c r="G45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>347.8</v>
       </c>
       <c r="J45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.2912805994066048</v>
       </c>
       <c r="K45">
-        <f>MAX(0,G45-$I$5-$I$8+K44)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f>G45-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-0.10871940059337248</v>
       </c>
       <c r="N45">
-        <f>MIN(0,G45-($I$5-$I$8)+N44)</f>
+        <f t="shared" si="5"/>
         <v>-40.426704415427992</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <f>IF(N45=0,0,COUNTIF($N$3:N45,"&lt;&gt;0"))</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8412,27 +8756,35 @@
         <v>350</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>348.6</v>
       </c>
       <c r="J46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.4912805994065934</v>
       </c>
       <c r="K46">
-        <f>MAX(0,G46-$I$5-$I$8+K45)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f>G46-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>0.69128059940663888</v>
       </c>
       <c r="N46">
-        <f>MIN(0,G46-($I$5-$I$8)+N45)</f>
+        <f t="shared" si="5"/>
         <v>-39.735423816021353</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="O46">
+        <f>IF(N46=0,0,COUNTIF($N$3:N46,"&lt;&gt;0"))</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8452,24 +8804,32 @@
         <v>342</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>340</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12.091280599406616</v>
       </c>
       <c r="K47">
-        <f>MAX(0,G47-$I$5-$I$8+K46)</f>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f>G47-($I$5-$I$8)</f>
+        <f t="shared" si="0"/>
         <v>-7.9087194005933839</v>
       </c>
       <c r="N47">
-        <f>MIN(0,G47-($I$5-$I$8)+N46)</f>
+        <f t="shared" si="5"/>
         <v>-47.644143216614737</v>
+      </c>
+      <c r="O47">
+        <f>IF(N47=0,0,COUNTIF($N$3:N47,"&lt;&gt;0"))</f>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBC912E-7A82-4ACB-80A4-DB28ACD48055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A088B-1851-4D67-AF97-B1D0675B19B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -36,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">                 </t>
@@ -418,6 +440,14 @@
     <t>k=1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>waffer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(k,h)=(0.3,7)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -587,12 +617,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -601,6 +625,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1894,7 +1924,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AA$2</c:f>
+              <c:f>'2'!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2044,7 +2074,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2'!$AA$3:$AA$42</c:f>
+              <c:f>'2'!$AB$3:$AB$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2182,7 +2212,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AD$2</c:f>
+              <c:f>'2'!$AE$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2332,7 +2362,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2'!$AD$3:$AD$42</c:f>
+              <c:f>'2'!$AE$3:$AE$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2486,7 +2516,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AF$2</c:f>
+              <c:f>'2'!$AG$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2638,7 +2668,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2'!$AF$3:$AF$42</c:f>
+              <c:f>'2'!$AG$3:$AG$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -2777,7 +2807,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AG$2</c:f>
+              <c:f>'2'!$AH$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2929,7 +2959,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2'!$AG$3:$AG$42</c:f>
+              <c:f>'2'!$AH$3:$AH$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -3744,6 +3774,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="457546928"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3911,7 +3942,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AJ$2</c:f>
+              <c:f>'2'!$AL$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4061,7 +4092,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2'!$AJ$3:$AJ$42</c:f>
+              <c:f>'2'!$AL$3:$AL$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4199,7 +4230,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AM$2</c:f>
+              <c:f>'2'!$AO$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4349,7 +4380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2'!$AM$3:$AM$42</c:f>
+              <c:f>'2'!$AO$3:$AO$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4503,7 +4534,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AO$2</c:f>
+              <c:f>'2'!$AQ$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4655,7 +4686,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2'!$AO$3:$AO$42</c:f>
+              <c:f>'2'!$AQ$3:$AQ$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -4794,7 +4825,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2'!$AP$2</c:f>
+              <c:f>'2'!$AR$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4946,7 +4977,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2'!$AP$3:$AP$42</c:f>
+              <c:f>'2'!$AR$3:$AR$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -5765,6 +5796,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="304658192"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -7708,6 +7740,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="423220272"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -9725,6 +9758,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="307833968"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -20365,7 +20399,7 @@
       <xdr:rowOff>81644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>612321</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>13608</xdr:rowOff>
@@ -20920,28 +20954,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3DEC7F-3699-4FD6-8985-CA44D5E74DBE}">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="14" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -21003,8 +21038,45 @@
       <c r="W2" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="AA2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="str" cm="1">
+        <f t="array" ref="AD2:AM3">TRANSPOSE(H2:I11)</f>
+        <v>X_bar_bar</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>sample variance</v>
+      </c>
+      <c r="AF2" t="str">
+        <v>standard error</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>mu_0</v>
+      </c>
+      <c r="AH2" t="str">
+        <v>mu_1</v>
+      </c>
+      <c r="AI2" t="str">
+        <v>delta</v>
+      </c>
+      <c r="AJ2" t="str">
+        <v>α</v>
+      </c>
+      <c r="AK2" t="str">
+        <v>β</v>
+      </c>
+      <c r="AL2" t="str">
+        <v>H_1</v>
+      </c>
+      <c r="AM2" t="str">
+        <v>H_0</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21083,8 +21155,47 @@
         <f>$I$11</f>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z3">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>349.2</v>
+      </c>
+      <c r="AB3">
+        <v>-2.8912805994066275</v>
+      </c>
+      <c r="AD3">
+        <v>348.50666666666672</v>
+      </c>
+      <c r="AE3">
+        <v>17.493818181818209</v>
+      </c>
+      <c r="AF3">
+        <v>4.1825611988132589</v>
+      </c>
+      <c r="AG3">
+        <v>350</v>
+      </c>
+      <c r="AH3">
+        <v>354.18256119881323</v>
+      </c>
+      <c r="AI3">
+        <v>4.1825611988132589</v>
+      </c>
+      <c r="AJ3">
+        <v>2E-3</v>
+      </c>
+      <c r="AK3">
+        <v>0.2</v>
+      </c>
+      <c r="AL3">
+        <v>25.059667138799107</v>
+      </c>
+      <c r="AM3">
+        <v>-6.7231990657556029</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21163,8 +21274,17 @@
         <f t="shared" ref="W4:W42" si="5">$I$11</f>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z4">
+        <v>47</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>349.6</v>
+      </c>
+      <c r="AB4">
+        <v>-5.3825611988132209</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21242,8 +21362,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z5">
+        <v>48</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>343.2</v>
+      </c>
+      <c r="AB5">
+        <v>-14.273841798219848</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21322,8 +21451,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z6">
+        <v>49</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>343.6</v>
+      </c>
+      <c r="AB6">
+        <v>-22.765122397626442</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21402,8 +21540,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z7">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>349.2</v>
+      </c>
+      <c r="AB7">
+        <v>-25.656402997033069</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21481,8 +21628,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z8">
+        <v>51</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>349.4</v>
+      </c>
+      <c r="AB8">
+        <v>-28.347683596439708</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21560,8 +21716,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z9">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>354.6</v>
+      </c>
+      <c r="AB9">
+        <v>-25.838964195846302</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21640,8 +21805,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z10">
+        <v>53</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>349</v>
+      </c>
+      <c r="AB10">
+        <v>-28.930244795252918</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21720,8 +21894,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z11">
+        <v>54</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>350.4</v>
+      </c>
+      <c r="AB11">
+        <v>-30.621525394659557</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21793,8 +21976,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z12">
+        <v>55</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>349.8</v>
+      </c>
+      <c r="AB12">
+        <v>-32.912805994066161</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -21866,8 +22058,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z13">
+        <v>56</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>349.4</v>
+      </c>
+      <c r="AB13">
+        <v>-35.6040865934728</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21939,8 +22140,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z14">
+        <v>57</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>349.2</v>
+      </c>
+      <c r="AB14">
+        <v>-38.495367192879428</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -22012,8 +22222,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z15">
+        <v>58</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>347</v>
+      </c>
+      <c r="AB15">
+        <v>-43.586647792286044</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -22088,8 +22307,17 @@
       <c r="Y16" t="s">
         <v>19</v>
       </c>
+      <c r="Z16">
+        <v>59</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>347.8</v>
+      </c>
+      <c r="AB16">
+        <v>-47.877928391692649</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -22161,8 +22389,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z17">
+        <v>60</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>350.4</v>
+      </c>
+      <c r="AB17">
+        <v>-49.569208991099288</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -22234,8 +22471,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z18">
+        <v>61</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>349.8</v>
+      </c>
+      <c r="AB18">
+        <v>-51.860489590505892</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -22307,8 +22553,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z19">
+        <v>62</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>349.8</v>
+      </c>
+      <c r="AB19">
+        <v>-54.151770189912497</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -22380,8 +22635,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z20">
+        <v>63</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>346.6</v>
+      </c>
+      <c r="AB20">
+        <v>-59.643050789319091</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -22453,8 +22717,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z21">
+        <v>64</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>348.6</v>
+      </c>
+      <c r="AB21">
+        <v>-63.134331388725684</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -22526,8 +22799,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z22">
+        <v>65</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>350.6</v>
+      </c>
+      <c r="AB22">
+        <v>-64.625611988132277</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -22599,8 +22881,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z23">
+        <v>66</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>347.8</v>
+      </c>
+      <c r="AB23">
+        <v>-68.916892587538882</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -22672,8 +22963,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z24">
+        <v>67</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>348.4</v>
+      </c>
+      <c r="AB24">
+        <v>-72.608173186945521</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -22745,8 +23045,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z25">
+        <v>68</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>347.4</v>
+      </c>
+      <c r="AB25">
+        <v>-77.29945378635216</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -22818,8 +23127,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z26">
+        <v>69</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>346.8</v>
+      </c>
+      <c r="AB26">
+        <v>-82.590734385758765</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -22891,8 +23209,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z27">
+        <v>70</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>347</v>
+      </c>
+      <c r="AB27">
+        <v>-87.682014985165381</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -22964,8 +23291,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z28">
+        <v>71</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>348.8</v>
+      </c>
+      <c r="AB28">
+        <v>-90.973295584571986</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -23037,8 +23373,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z29">
+        <v>72</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>338.4</v>
+      </c>
+      <c r="AB29">
+        <v>-104.66457618397862</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -23110,8 +23455,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z30">
+        <v>73</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>347.8</v>
+      </c>
+      <c r="AB30">
+        <v>-108.95585678338523</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -23183,8 +23537,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z31">
+        <v>74</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>347.6</v>
+      </c>
+      <c r="AB31">
+        <v>-113.44713738279182</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -23256,8 +23619,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z32">
+        <v>75</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>346</v>
+      </c>
+      <c r="AB32">
+        <v>-119.53841798219844</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -23329,8 +23701,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z33">
+        <v>76</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>347.6</v>
+      </c>
+      <c r="AB33">
+        <v>-124.02969858160503</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -23402,8 +23783,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z34">
+        <v>77</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>346.6</v>
+      </c>
+      <c r="AB34">
+        <v>-129.52097918101163</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -23475,8 +23865,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z35">
+        <v>78</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>349</v>
+      </c>
+      <c r="AB35">
+        <v>-132.61225978041824</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -23548,8 +23947,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z36">
+        <v>79</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>349.8</v>
+      </c>
+      <c r="AB36">
+        <v>-134.90354037982485</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -23621,8 +24029,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z37">
+        <v>80</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>349.6</v>
+      </c>
+      <c r="AB37">
+        <v>-137.39482097923144</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -23694,8 +24111,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z38">
+        <v>81</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>348</v>
+      </c>
+      <c r="AB38">
+        <v>-141.48610157863806</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -23767,8 +24193,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z39">
+        <v>82</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>349</v>
+      </c>
+      <c r="AB39">
+        <v>-144.57738217804467</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -23840,8 +24275,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z40">
+        <v>83</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>346.6</v>
+      </c>
+      <c r="AB40">
+        <v>-150.06866277745127</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -23913,8 +24357,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z41">
+        <v>84</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>350.4</v>
+      </c>
+      <c r="AB41">
+        <v>-151.7599433768579</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -23986,8 +24439,17 @@
         <f t="shared" si="5"/>
         <v>-6.7231990657556029</v>
       </c>
+      <c r="Z42">
+        <v>85</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>348.6</v>
+      </c>
+      <c r="AB42">
+        <v>-155.2512239762645</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -24022,7 +24484,7 @@
         <v>-138.1425045756713</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -24057,7 +24519,7 @@
         <v>-141.4337851750779</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -24092,7 +24554,7 @@
         <v>-145.72506577448451</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -24127,7 +24589,7 @@
         <v>-149.2163463738911</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -24174,10 +24636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D502F58C-6151-4AA4-A07E-4B16369BF79A}">
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AZ47"/>
   <sheetViews>
-    <sheetView topLeftCell="G37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:AG2"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -24191,33 +24653,45 @@
     <col min="14" max="17" width="9" customWidth="1"/>
     <col min="19" max="23" width="0" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="10.375" customWidth="1"/>
-    <col min="26" max="26" width="12.25" customWidth="1"/>
-    <col min="29" max="29" width="11.625" customWidth="1"/>
-    <col min="35" max="35" width="11.5" customWidth="1"/>
-    <col min="38" max="38" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="12.25" customWidth="1"/>
+    <col min="30" max="30" width="11.625" customWidth="1"/>
+    <col min="37" max="37" width="11.5" customWidth="1"/>
+    <col min="40" max="40" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AJ1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -24287,55 +24761,86 @@
       </c>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AD2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AE2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AF2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AM2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AP2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AR2" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="AS2" t="str" cm="1">
+        <f t="array" ref="AS2:AZ3">TRANSPOSE(H2:I9)</f>
+        <v>X_bar_bar</v>
+      </c>
+      <c r="AT2" t="str">
+        <v>sample variance</v>
+      </c>
+      <c r="AU2" t="str">
+        <v>standard error</v>
+      </c>
+      <c r="AV2" t="str">
+        <v>mu_0</v>
+      </c>
+      <c r="AW2" t="str">
+        <v>k</v>
+      </c>
+      <c r="AX2" t="str">
+        <v>h</v>
+      </c>
+      <c r="AY2" t="str">
+        <v>K</v>
+      </c>
+      <c r="AZ2" t="str">
+        <v>H</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -24422,72 +24927,103 @@
       <c r="Y3" s="1">
         <v>1</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
+        <f>R3</f>
+        <v>46</v>
+      </c>
+      <c r="AA3">
         <f>X3-($I$5+$I$8)</f>
         <v>-2.8912805994066275</v>
       </c>
-      <c r="AA3">
-        <f>MAX(0,Z3)</f>
-        <v>0</v>
-      </c>
       <c r="AB3">
+        <f>MAX(0,AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <f>X3-($I$5-$I$8)</f>
         <v>1.2912805994066048</v>
       </c>
-      <c r="AD3">
-        <f>MIN(0,AC3)</f>
-        <v>0</v>
-      </c>
       <c r="AE3">
+        <f>MIN(0,AD3)</f>
         <v>0</v>
       </c>
       <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <f>$I$9</f>
         <v>20.912805994066296</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <f>-$I$9</f>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
+        <v>46</v>
+      </c>
+      <c r="AK3">
         <f>X3-($I$14+$I$17)</f>
         <v>-2.0547683596440152</v>
       </c>
-      <c r="AJ3">
-        <f>MAX(0,AI3)</f>
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
       <c r="AL3">
+        <f>MAX(0,AK3)</f>
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
         <f>X3-($I$14-$I$17)</f>
         <v>0.45476835964399243</v>
       </c>
-      <c r="AM3">
-        <f>MIN(0,AL3)</f>
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
       <c r="AO3">
+        <f>MIN(0,AN3)</f>
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
         <f>$I$18</f>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP3">
+      <c r="AR3">
         <f>-$I$18</f>
         <v>-29.277928391692811</v>
       </c>
+      <c r="AS3">
+        <v>348.50666666666672</v>
+      </c>
+      <c r="AT3">
+        <v>17.493818181818209</v>
+      </c>
+      <c r="AU3">
+        <v>4.1825611988132589</v>
+      </c>
+      <c r="AV3">
+        <v>350</v>
+      </c>
+      <c r="AW3">
+        <v>0.5</v>
+      </c>
+      <c r="AX3">
+        <v>5</v>
+      </c>
+      <c r="AY3">
+        <v>2.0912805994066295</v>
+      </c>
+      <c r="AZ3">
+        <v>20.912805994066296</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -24574,72 +25110,79 @@
       <c r="Y4" s="1">
         <v>2</v>
       </c>
-      <c r="Z4">
-        <f t="shared" ref="Z4:Z42" si="8">X4-($I$5+$I$8)</f>
+      <c r="Z4" s="1">
+        <f t="shared" ref="Z4:Z42" si="8">R4</f>
+        <v>47</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA42" si="9">X4-($I$5+$I$8)</f>
         <v>-2.4912805994065934</v>
       </c>
-      <c r="AA4">
-        <f>MAX(0,Z4+AA3)</f>
-        <v>0</v>
-      </c>
       <c r="AB4">
+        <f>MAX(0,AA4+AB3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC42" si="9">X4-($I$5-$I$8)</f>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD42" si="10">X4-($I$5-$I$8)</f>
         <v>1.6912805994066389</v>
       </c>
-      <c r="AD4">
-        <f>MIN(0,AC4+AD3)</f>
-        <v>0</v>
-      </c>
       <c r="AE4">
+        <f>MIN(0,AD4+AE3)</f>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF42" si="10">$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG42" si="11">$I$9</f>
         <v>20.912805994066296</v>
       </c>
-      <c r="AG4">
-        <f t="shared" ref="AG4:AG42" si="11">-$I$9</f>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH42" si="12">-$I$9</f>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>2</v>
       </c>
-      <c r="AI4">
-        <f t="shared" ref="AI4:AI42" si="12">X4-($I$14+$I$17)</f>
+      <c r="AJ4">
+        <v>47</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK42" si="13">X4-($I$14+$I$17)</f>
         <v>-1.6547683596439811</v>
       </c>
-      <c r="AJ4">
-        <f>MAX(0,AJ3+AI4)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
       <c r="AL4">
-        <f t="shared" ref="AL4:AL42" si="13">X4-($I$14-$I$17)</f>
+        <f>MAX(0,AL3+AK4)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ref="AN4:AN42" si="14">X4-($I$14-$I$17)</f>
         <v>0.85476835964402653</v>
       </c>
-      <c r="AM4">
-        <f>MIN(0,AM3+AL4)</f>
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
       <c r="AO4">
-        <f t="shared" ref="AO4:AO42" si="14">$I$18</f>
+        <f>MIN(0,AO3+AN4)</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ42" si="15">$I$18</f>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP4">
-        <f t="shared" ref="AP4:AP42" si="15">-$I$18</f>
+      <c r="AR4">
+        <f t="shared" ref="AR4:AR42" si="16">-$I$18</f>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -24725,72 +25268,104 @@
       <c r="Y5" s="1">
         <v>3</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="9"/>
         <v>-8.8912805994066275</v>
       </c>
-      <c r="AA5">
-        <f t="shared" ref="AA5:AA42" si="16">MAX(0,Z5+AA4)</f>
-        <v>0</v>
-      </c>
       <c r="AB5">
+        <f t="shared" ref="AB5:AB42" si="17">MAX(0,AA5+AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC5">
-        <f t="shared" si="9"/>
+      <c r="AD5">
+        <f t="shared" si="10"/>
         <v>-4.7087194005933952</v>
       </c>
-      <c r="AD5">
-        <f t="shared" ref="AD5:AD42" si="17">MIN(0,AC5+AD4)</f>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE42" si="18">MIN(0,AD5+AE4)</f>
         <v>-4.7087194005933952</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG5">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>3</v>
       </c>
-      <c r="AI5">
-        <f t="shared" si="12"/>
+      <c r="AJ5">
+        <v>48</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="13"/>
         <v>-8.0547683596440152</v>
       </c>
-      <c r="AJ5">
-        <f t="shared" ref="AJ5:AJ42" si="18">MAX(0,AJ4+AI5)</f>
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
       <c r="AL5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AL5:AL42" si="19">MAX(0,AL4+AK5)</f>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="14"/>
         <v>-5.5452316403560076</v>
       </c>
-      <c r="AM5">
-        <f t="shared" ref="AM5:AM42" si="19">MIN(0,AM4+AL5)</f>
+      <c r="AO5">
+        <f t="shared" ref="AO5:AO42" si="20">MIN(0,AO4+AN5)</f>
         <v>-5.5452316403560076</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <v>1</v>
       </c>
-      <c r="AO5">
-        <f t="shared" si="14"/>
+      <c r="AQ5">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP5">
-        <f t="shared" si="15"/>
+      <c r="AR5">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
+      <c r="AS5" t="str" cm="1">
+        <f t="array" ref="AS5:AZ6">TRANSPOSE(H11:I18)</f>
+        <v>X_bar_bar</v>
+      </c>
+      <c r="AT5" t="str">
+        <v>sample variance</v>
+      </c>
+      <c r="AU5" t="str">
+        <v>standard error</v>
+      </c>
+      <c r="AV5" t="str">
+        <v>mu_0</v>
+      </c>
+      <c r="AW5" t="str">
+        <v>k</v>
+      </c>
+      <c r="AX5" t="str">
+        <v>h</v>
+      </c>
+      <c r="AY5" t="str">
+        <v>K</v>
+      </c>
+      <c r="AZ5" t="str">
+        <v>H</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -24876,72 +25451,103 @@
       <c r="Y6" s="1">
         <v>4</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="9"/>
         <v>-8.4912805994065934</v>
       </c>
-      <c r="AA6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC6">
-        <f t="shared" si="9"/>
+      <c r="AD6">
+        <f t="shared" si="10"/>
         <v>-4.3087194005933611</v>
       </c>
-      <c r="AD6">
-        <f t="shared" si="17"/>
+      <c r="AE6">
+        <f t="shared" si="18"/>
         <v>-9.0174388011867563</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2</v>
-      </c>
-      <c r="AF6">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG6">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>4</v>
       </c>
-      <c r="AI6">
-        <f t="shared" si="12"/>
+      <c r="AJ6">
+        <v>49</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="13"/>
         <v>-7.6547683596439811</v>
       </c>
-      <c r="AJ6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
       <c r="AL6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="14"/>
         <v>-5.1452316403559735</v>
       </c>
-      <c r="AM6">
-        <f t="shared" si="19"/>
+      <c r="AO6">
+        <f t="shared" si="20"/>
         <v>-10.690463280711981</v>
       </c>
-      <c r="AN6">
+      <c r="AP6">
         <v>2</v>
       </c>
-      <c r="AO6">
-        <f t="shared" si="14"/>
+      <c r="AQ6">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP6">
-        <f t="shared" si="15"/>
+      <c r="AR6">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
+      <c r="AS6">
+        <v>348.50666666666672</v>
+      </c>
+      <c r="AT6">
+        <v>17.493818181818209</v>
+      </c>
+      <c r="AU6">
+        <v>4.1825611988132589</v>
+      </c>
+      <c r="AV6">
+        <v>350</v>
+      </c>
+      <c r="AW6">
+        <v>0.3</v>
+      </c>
+      <c r="AX6">
+        <v>7</v>
+      </c>
+      <c r="AY6">
+        <v>1.2547683596439776</v>
+      </c>
+      <c r="AZ6">
+        <v>29.277928391692811</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -25027,72 +25633,79 @@
       <c r="Y7" s="1">
         <v>5</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="9"/>
         <v>-2.8912805994066275</v>
       </c>
-      <c r="AA7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB7">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC7">
-        <f t="shared" si="9"/>
+      <c r="AD7">
+        <f t="shared" si="10"/>
         <v>1.2912805994066048</v>
       </c>
-      <c r="AD7">
-        <f t="shared" si="17"/>
+      <c r="AE7">
+        <f t="shared" si="18"/>
         <v>-7.7261582017801516</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>3</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG7">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5</v>
       </c>
-      <c r="AI7">
-        <f t="shared" si="12"/>
+      <c r="AJ7">
+        <v>50</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="13"/>
         <v>-2.0547683596440152</v>
       </c>
-      <c r="AJ7">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
       <c r="AL7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="14"/>
         <v>0.45476835964399243</v>
       </c>
-      <c r="AM7">
-        <f t="shared" si="19"/>
+      <c r="AO7">
+        <f t="shared" si="20"/>
         <v>-10.235694921067989</v>
       </c>
-      <c r="AN7">
+      <c r="AP7">
         <v>3</v>
       </c>
-      <c r="AO7">
-        <f t="shared" si="14"/>
+      <c r="AQ7">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP7">
-        <f t="shared" si="15"/>
+      <c r="AR7">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -25179,72 +25792,79 @@
       <c r="Y8" s="1">
         <v>6</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="9"/>
         <v>-2.6912805994066389</v>
       </c>
-      <c r="AA8">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB8">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AC8">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AC8">
-        <f t="shared" si="9"/>
+      <c r="AD8">
+        <f t="shared" si="10"/>
         <v>1.4912805994065934</v>
       </c>
-      <c r="AD8">
-        <f t="shared" si="17"/>
+      <c r="AE8">
+        <f t="shared" si="18"/>
         <v>-6.2348776023735581</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>4</v>
-      </c>
-      <c r="AF8">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG8">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>6</v>
       </c>
-      <c r="AI8">
-        <f t="shared" si="12"/>
+      <c r="AJ8">
+        <v>51</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="13"/>
         <v>-1.8547683596440265</v>
       </c>
-      <c r="AJ8">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>0</v>
-      </c>
       <c r="AL8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="14"/>
         <v>0.65476835964398106</v>
       </c>
-      <c r="AM8">
-        <f t="shared" si="19"/>
+      <c r="AO8">
+        <f t="shared" si="20"/>
         <v>-9.5809265614240076</v>
       </c>
-      <c r="AN8">
+      <c r="AP8">
         <v>4</v>
       </c>
-      <c r="AO8">
-        <f t="shared" si="14"/>
+      <c r="AQ8">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP8">
-        <f t="shared" si="15"/>
+      <c r="AR8">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -25331,71 +25951,78 @@
       <c r="Y9" s="1">
         <v>7</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="9"/>
         <v>2.5087194005934066</v>
       </c>
-      <c r="AA9">
-        <f t="shared" si="16"/>
+      <c r="AB9">
+        <f t="shared" si="17"/>
         <v>2.5087194005934066</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>1</v>
       </c>
-      <c r="AC9">
-        <f t="shared" si="9"/>
+      <c r="AD9">
+        <f t="shared" si="10"/>
         <v>6.6912805994066389</v>
       </c>
-      <c r="AD9">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE9">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>7</v>
       </c>
-      <c r="AI9">
-        <f t="shared" si="12"/>
+      <c r="AJ9">
+        <v>52</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="13"/>
         <v>3.3452316403560189</v>
       </c>
-      <c r="AJ9">
-        <f t="shared" si="18"/>
+      <c r="AL9">
+        <f t="shared" si="19"/>
         <v>3.3452316403560189</v>
       </c>
-      <c r="AK9">
+      <c r="AM9">
         <v>1</v>
       </c>
-      <c r="AL9">
-        <f t="shared" si="13"/>
+      <c r="AN9">
+        <f t="shared" si="14"/>
         <v>5.8547683596440265</v>
       </c>
-      <c r="AM9">
-        <f t="shared" si="19"/>
+      <c r="AO9">
+        <f t="shared" si="20"/>
         <v>-3.726158201779981</v>
       </c>
-      <c r="AN9">
+      <c r="AP9">
         <v>5</v>
       </c>
-      <c r="AO9">
-        <f t="shared" si="14"/>
+      <c r="AQ9">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="15"/>
+      <c r="AR9">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -25475,71 +26102,78 @@
       <c r="Y10" s="1">
         <v>8</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
         <v>-3.0912805994066161</v>
       </c>
-      <c r="AA10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB10">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="10"/>
         <v>1.0912805994066161</v>
       </c>
-      <c r="AD10">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE10">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>8</v>
       </c>
-      <c r="AI10">
-        <f t="shared" si="12"/>
+      <c r="AJ10">
+        <v>53</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="13"/>
         <v>-2.2547683596440038</v>
       </c>
-      <c r="AJ10">
-        <f t="shared" si="18"/>
+      <c r="AL10">
+        <f t="shared" si="19"/>
         <v>1.0904632807120151</v>
       </c>
-      <c r="AK10">
+      <c r="AM10">
         <v>2</v>
       </c>
-      <c r="AL10">
-        <f t="shared" si="13"/>
+      <c r="AN10">
+        <f t="shared" si="14"/>
         <v>0.25476835964400379</v>
       </c>
-      <c r="AM10">
-        <f t="shared" si="19"/>
+      <c r="AO10">
+        <f t="shared" si="20"/>
         <v>-3.4713898421359772</v>
       </c>
-      <c r="AN10">
+      <c r="AP10">
         <v>6</v>
       </c>
-      <c r="AO10">
-        <f t="shared" si="14"/>
+      <c r="AQ10">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="15"/>
+      <c r="AR10">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -25626,71 +26260,78 @@
       <c r="Y11" s="1">
         <v>9</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <f t="shared" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="9"/>
         <v>-1.6912805994066389</v>
       </c>
-      <c r="AA11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB11">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="10"/>
         <v>2.4912805994065934</v>
       </c>
-      <c r="AD11">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE11">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>9</v>
       </c>
-      <c r="AI11">
-        <f t="shared" si="12"/>
+      <c r="AJ11">
+        <v>54</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="13"/>
         <v>-0.85476835964402653</v>
       </c>
-      <c r="AJ11">
-        <f t="shared" si="18"/>
+      <c r="AL11">
+        <f t="shared" si="19"/>
         <v>0.23569492106798862</v>
       </c>
-      <c r="AK11">
+      <c r="AM11">
         <v>3</v>
       </c>
-      <c r="AL11">
-        <f t="shared" si="13"/>
+      <c r="AN11">
+        <f t="shared" si="14"/>
         <v>1.6547683596439811</v>
       </c>
-      <c r="AM11">
-        <f t="shared" si="19"/>
+      <c r="AO11">
+        <f t="shared" si="20"/>
         <v>-1.8166214824919962</v>
       </c>
-      <c r="AN11">
+      <c r="AP11">
         <v>7</v>
       </c>
-      <c r="AO11">
-        <f t="shared" si="14"/>
+      <c r="AQ11">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="15"/>
+      <c r="AR11">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -25777,71 +26418,78 @@
       <c r="Y12" s="1">
         <v>10</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="9"/>
         <v>-2.2912805994066048</v>
       </c>
-      <c r="AA12">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB12">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="10"/>
         <v>1.8912805994066275</v>
       </c>
-      <c r="AD12">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE12">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG12">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>10</v>
       </c>
-      <c r="AI12">
-        <f t="shared" si="12"/>
+      <c r="AJ12">
+        <v>55</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="13"/>
         <v>-1.4547683596439924</v>
       </c>
-      <c r="AJ12">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
       <c r="AL12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="14"/>
         <v>1.0547683596440152</v>
       </c>
-      <c r="AM12">
-        <f t="shared" si="19"/>
+      <c r="AO12">
+        <f t="shared" si="20"/>
         <v>-0.76185312284798101</v>
       </c>
-      <c r="AN12">
+      <c r="AP12">
         <v>8</v>
       </c>
-      <c r="AO12">
-        <f t="shared" si="14"/>
+      <c r="AQ12">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="15"/>
+      <c r="AR12">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -25928,71 +26576,78 @@
       <c r="Y13" s="1">
         <v>11</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="9"/>
         <v>-2.6912805994066389</v>
       </c>
-      <c r="AA13">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB13">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="10"/>
         <v>1.4912805994065934</v>
       </c>
-      <c r="AD13">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE13">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG13">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>11</v>
       </c>
-      <c r="AI13">
-        <f t="shared" si="12"/>
+      <c r="AJ13">
+        <v>56</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="13"/>
         <v>-1.8547683596440265</v>
       </c>
-      <c r="AJ13">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
       <c r="AL13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="14"/>
         <v>0.65476835964398106</v>
       </c>
-      <c r="AM13">
-        <f t="shared" si="19"/>
+      <c r="AO13">
+        <f t="shared" si="20"/>
         <v>-0.10708476320399996</v>
       </c>
-      <c r="AN13">
+      <c r="AP13">
         <v>9</v>
       </c>
-      <c r="AO13">
-        <f t="shared" si="14"/>
+      <c r="AQ13">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="15"/>
+      <c r="AR13">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -26078,71 +26733,78 @@
       <c r="Y14" s="1">
         <v>12</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="9"/>
         <v>-2.8912805994066275</v>
       </c>
-      <c r="AA14">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB14">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="10"/>
         <v>1.2912805994066048</v>
       </c>
-      <c r="AD14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE14">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>12</v>
       </c>
-      <c r="AI14">
-        <f t="shared" si="12"/>
+      <c r="AJ14">
+        <v>57</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="13"/>
         <v>-2.0547683596440152</v>
       </c>
-      <c r="AJ14">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
       <c r="AL14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="14"/>
         <v>0.45476835964399243</v>
       </c>
-      <c r="AM14">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
       <c r="AO14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP14">
-        <f t="shared" si="15"/>
+      <c r="AR14">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -26228,71 +26890,78 @@
       <c r="Y15" s="1">
         <v>13</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="9"/>
         <v>-5.0912805994066161</v>
       </c>
-      <c r="AA15">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB15">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="10"/>
         <v>-0.90871940059338385</v>
       </c>
-      <c r="AD15">
-        <f t="shared" si="17"/>
+      <c r="AE15">
+        <f t="shared" si="18"/>
         <v>-0.90871940059338385</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG15">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>13</v>
       </c>
-      <c r="AI15">
-        <f t="shared" si="12"/>
+      <c r="AJ15">
+        <v>58</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="13"/>
         <v>-4.2547683596440038</v>
       </c>
-      <c r="AJ15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
       <c r="AL15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="14"/>
         <v>-1.7452316403559962</v>
       </c>
-      <c r="AM15">
-        <f t="shared" si="19"/>
+      <c r="AO15">
+        <f t="shared" si="20"/>
         <v>-1.7452316403559962</v>
       </c>
-      <c r="AN15">
+      <c r="AP15">
         <v>1</v>
       </c>
-      <c r="AO15">
-        <f t="shared" si="14"/>
+      <c r="AQ15">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP15">
-        <f t="shared" si="15"/>
+      <c r="AR15">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -26378,71 +27047,78 @@
       <c r="Y16" s="1">
         <v>14</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <f t="shared" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="9"/>
         <v>-4.2912805994066048</v>
       </c>
-      <c r="AA16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB16">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="10"/>
         <v>-0.10871940059337248</v>
       </c>
-      <c r="AD16">
-        <f t="shared" si="17"/>
+      <c r="AE16">
+        <f t="shared" si="18"/>
         <v>-1.0174388011867563</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>2</v>
-      </c>
-      <c r="AF16">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG16">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>14</v>
       </c>
-      <c r="AI16">
-        <f t="shared" si="12"/>
+      <c r="AJ16">
+        <v>59</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="13"/>
         <v>-3.4547683596439924</v>
       </c>
-      <c r="AJ16">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
       <c r="AL16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="14"/>
         <v>-0.94523164035598484</v>
       </c>
-      <c r="AM16">
-        <f t="shared" si="19"/>
+      <c r="AO16">
+        <f t="shared" si="20"/>
         <v>-2.690463280711981</v>
       </c>
-      <c r="AN16">
+      <c r="AP16">
         <v>2</v>
       </c>
-      <c r="AO16">
-        <f t="shared" si="14"/>
+      <c r="AQ16">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP16">
-        <f t="shared" si="15"/>
+      <c r="AR16">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -26529,71 +27205,78 @@
       <c r="Y17" s="1">
         <v>15</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="9"/>
         <v>-1.6912805994066389</v>
       </c>
-      <c r="AA17">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB17">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="10"/>
         <v>2.4912805994065934</v>
       </c>
-      <c r="AD17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE17">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>15</v>
       </c>
-      <c r="AI17">
-        <f t="shared" si="12"/>
+      <c r="AJ17">
+        <v>60</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="13"/>
         <v>-0.85476835964402653</v>
       </c>
-      <c r="AJ17">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
       <c r="AL17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="14"/>
         <v>1.6547683596439811</v>
       </c>
-      <c r="AM17">
-        <f t="shared" si="19"/>
+      <c r="AO17">
+        <f t="shared" si="20"/>
         <v>-1.035694921068</v>
       </c>
-      <c r="AN17">
+      <c r="AP17">
         <v>3</v>
       </c>
-      <c r="AO17">
-        <f t="shared" si="14"/>
+      <c r="AQ17">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP17">
-        <f t="shared" si="15"/>
+      <c r="AR17">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -26680,71 +27363,78 @@
       <c r="Y18" s="1">
         <v>16</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="9"/>
         <v>-2.2912805994066048</v>
       </c>
-      <c r="AA18">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB18">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="10"/>
         <v>1.8912805994066275</v>
       </c>
-      <c r="AD18">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE18">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG18">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>16</v>
       </c>
-      <c r="AI18">
-        <f t="shared" si="12"/>
+      <c r="AJ18">
+        <v>61</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="13"/>
         <v>-1.4547683596439924</v>
       </c>
-      <c r="AJ18">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
       <c r="AL18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="14"/>
         <v>1.0547683596440152</v>
       </c>
-      <c r="AM18">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
       <c r="AO18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP18">
-        <f t="shared" si="15"/>
+      <c r="AR18">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -26824,71 +27514,78 @@
       <c r="Y19" s="1">
         <v>17</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <f t="shared" si="8"/>
+        <v>62</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="9"/>
         <v>-2.2912805994066048</v>
       </c>
-      <c r="AA19">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB19">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="10"/>
         <v>1.8912805994066275</v>
       </c>
-      <c r="AD19">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE19">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG19">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>17</v>
       </c>
-      <c r="AI19">
-        <f t="shared" si="12"/>
+      <c r="AJ19">
+        <v>62</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="13"/>
         <v>-1.4547683596439924</v>
       </c>
-      <c r="AJ19">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>0</v>
-      </c>
       <c r="AL19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="14"/>
         <v>1.0547683596440152</v>
       </c>
-      <c r="AM19">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
       <c r="AO19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP19">
-        <f t="shared" si="15"/>
+      <c r="AR19">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -26968,71 +27665,78 @@
       <c r="Y20" s="1">
         <v>18</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="1">
         <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="9"/>
         <v>-5.4912805994065934</v>
       </c>
-      <c r="AA20">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB20">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="10"/>
         <v>-1.3087194005933611</v>
       </c>
-      <c r="AD20">
-        <f t="shared" si="17"/>
+      <c r="AE20">
+        <f t="shared" si="18"/>
         <v>-1.3087194005933611</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG20">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>18</v>
       </c>
-      <c r="AI20">
-        <f t="shared" si="12"/>
+      <c r="AJ20">
+        <v>63</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="13"/>
         <v>-4.6547683596439811</v>
       </c>
-      <c r="AJ20">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
       <c r="AL20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="14"/>
         <v>-2.1452316403559735</v>
       </c>
-      <c r="AM20">
-        <f t="shared" si="19"/>
+      <c r="AO20">
+        <f t="shared" si="20"/>
         <v>-2.1452316403559735</v>
       </c>
-      <c r="AN20">
+      <c r="AP20">
         <v>1</v>
       </c>
-      <c r="AO20">
-        <f t="shared" si="14"/>
+      <c r="AQ20">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP20">
-        <f t="shared" si="15"/>
+      <c r="AR20">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -27112,71 +27816,78 @@
       <c r="Y21" s="1">
         <v>19</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="9"/>
         <v>-3.4912805994065934</v>
       </c>
-      <c r="AA21">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB21">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="10"/>
         <v>0.69128059940663888</v>
       </c>
-      <c r="AD21">
-        <f t="shared" si="17"/>
+      <c r="AE21">
+        <f t="shared" si="18"/>
         <v>-0.61743880118672223</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>2</v>
-      </c>
-      <c r="AF21">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG21">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>19</v>
       </c>
-      <c r="AI21">
-        <f t="shared" si="12"/>
+      <c r="AJ21">
+        <v>64</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="13"/>
         <v>-2.6547683596439811</v>
       </c>
-      <c r="AJ21">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>0</v>
-      </c>
       <c r="AL21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="14"/>
         <v>-0.14523164035597347</v>
       </c>
-      <c r="AM21">
-        <f t="shared" si="19"/>
+      <c r="AO21">
+        <f t="shared" si="20"/>
         <v>-2.2904632807119469</v>
       </c>
-      <c r="AN21">
+      <c r="AP21">
         <v>2</v>
       </c>
-      <c r="AO21">
-        <f t="shared" si="14"/>
+      <c r="AQ21">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP21">
-        <f t="shared" si="15"/>
+      <c r="AR21">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -27256,71 +27967,78 @@
       <c r="Y22" s="1">
         <v>20</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="9"/>
         <v>-1.4912805994065934</v>
       </c>
-      <c r="AA22">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB22">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="10"/>
         <v>2.6912805994066389</v>
       </c>
-      <c r="AD22">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE22">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>20</v>
       </c>
-      <c r="AI22">
-        <f t="shared" si="12"/>
+      <c r="AJ22">
+        <v>65</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="13"/>
         <v>-0.65476835964398106</v>
       </c>
-      <c r="AJ22">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
       <c r="AL22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="14"/>
         <v>1.8547683596440265</v>
       </c>
-      <c r="AM22">
-        <f t="shared" si="19"/>
+      <c r="AO22">
+        <f t="shared" si="20"/>
         <v>-0.4356949210679204</v>
       </c>
-      <c r="AN22">
+      <c r="AP22">
         <v>3</v>
       </c>
-      <c r="AO22">
-        <f t="shared" si="14"/>
+      <c r="AQ22">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP22">
-        <f t="shared" si="15"/>
+      <c r="AR22">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -27394,77 +28112,84 @@
         <v>349</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" ref="X23:X42" si="20">AVERAGE(S23:W23)</f>
+        <f t="shared" ref="X23:X42" si="21">AVERAGE(S23:W23)</f>
         <v>347.8</v>
       </c>
       <c r="Y23" s="1">
         <v>21</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="9"/>
         <v>-4.2912805994066048</v>
       </c>
-      <c r="AA23">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB23">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="10"/>
         <v>-0.10871940059337248</v>
       </c>
-      <c r="AD23">
-        <f t="shared" si="17"/>
+      <c r="AE23">
+        <f t="shared" si="18"/>
         <v>-0.10871940059337248</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>1</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG23">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>21</v>
       </c>
-      <c r="AI23">
-        <f t="shared" si="12"/>
+      <c r="AJ23">
+        <v>66</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="13"/>
         <v>-3.4547683596439924</v>
       </c>
-      <c r="AJ23">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
       <c r="AL23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="14"/>
         <v>-0.94523164035598484</v>
       </c>
-      <c r="AM23">
-        <f t="shared" si="19"/>
+      <c r="AO23">
+        <f t="shared" si="20"/>
         <v>-1.3809265614239052</v>
       </c>
-      <c r="AN23">
+      <c r="AP23">
         <v>4</v>
       </c>
-      <c r="AO23">
-        <f t="shared" si="14"/>
+      <c r="AQ23">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP23">
-        <f t="shared" si="15"/>
+      <c r="AR23">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -27538,77 +28263,84 @@
         <v>349</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>348.4</v>
       </c>
       <c r="Y24" s="1">
         <v>22</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="1">
         <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="9"/>
         <v>-3.6912805994066389</v>
       </c>
-      <c r="AA24">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB24">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="10"/>
         <v>0.49128059940659341</v>
       </c>
-      <c r="AD24">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
       <c r="AE24">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
+        <v>0</v>
       </c>
       <c r="AG24">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>22</v>
       </c>
-      <c r="AI24">
-        <f t="shared" si="12"/>
+      <c r="AJ24">
+        <v>67</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="13"/>
         <v>-2.8547683596440265</v>
       </c>
-      <c r="AJ24">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
       <c r="AL24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="14"/>
         <v>-0.34523164035601894</v>
       </c>
-      <c r="AM24">
-        <f t="shared" si="19"/>
+      <c r="AO24">
+        <f t="shared" si="20"/>
         <v>-1.7261582017799242</v>
       </c>
-      <c r="AN24">
+      <c r="AP24">
         <v>5</v>
       </c>
-      <c r="AO24">
-        <f t="shared" si="14"/>
+      <c r="AQ24">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP24">
-        <f t="shared" si="15"/>
+      <c r="AR24">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -27682,77 +28414,84 @@
         <v>348</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>347.4</v>
       </c>
       <c r="Y25" s="1">
         <v>23</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="9"/>
         <v>-4.6912805994066389</v>
       </c>
-      <c r="AA25">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB25">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="10"/>
         <v>-0.50871940059340659</v>
       </c>
-      <c r="AD25">
-        <f t="shared" si="17"/>
+      <c r="AE25">
+        <f t="shared" si="18"/>
         <v>-0.50871940059340659</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>1</v>
-      </c>
-      <c r="AF25">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG25">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>23</v>
       </c>
-      <c r="AI25">
-        <f t="shared" si="12"/>
+      <c r="AJ25">
+        <v>68</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="13"/>
         <v>-3.8547683596440265</v>
       </c>
-      <c r="AJ25">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
       <c r="AL25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="14"/>
         <v>-1.3452316403560189</v>
       </c>
-      <c r="AM25">
-        <f t="shared" si="19"/>
+      <c r="AO25">
+        <f t="shared" si="20"/>
         <v>-3.0713898421359431</v>
       </c>
-      <c r="AN25">
+      <c r="AP25">
         <v>6</v>
       </c>
-      <c r="AO25">
-        <f t="shared" si="14"/>
+      <c r="AQ25">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP25">
-        <f t="shared" si="15"/>
+      <c r="AR25">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -27826,77 +28565,84 @@
         <v>348</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>346.8</v>
       </c>
       <c r="Y26" s="1">
         <v>24</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="9"/>
         <v>-5.2912805994066048</v>
       </c>
-      <c r="AA26">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB26">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="10"/>
         <v>-1.1087194005933725</v>
       </c>
-      <c r="AD26">
-        <f t="shared" si="17"/>
+      <c r="AE26">
+        <f t="shared" si="18"/>
         <v>-1.6174388011867791</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>2</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG26">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>24</v>
       </c>
-      <c r="AI26">
-        <f t="shared" si="12"/>
+      <c r="AJ26">
+        <v>69</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="13"/>
         <v>-4.4547683596439924</v>
       </c>
-      <c r="AJ26">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
       <c r="AL26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="14"/>
         <v>-1.9452316403559848</v>
       </c>
-      <c r="AM26">
-        <f t="shared" si="19"/>
+      <c r="AO26">
+        <f t="shared" si="20"/>
         <v>-5.016621482491928</v>
       </c>
-      <c r="AN26">
+      <c r="AP26">
         <v>7</v>
       </c>
-      <c r="AO26">
-        <f t="shared" si="14"/>
+      <c r="AQ26">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP26">
-        <f t="shared" si="15"/>
+      <c r="AR26">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -27970,77 +28716,84 @@
         <v>347</v>
       </c>
       <c r="X27" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>347</v>
       </c>
       <c r="Y27" s="1">
         <v>25</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="9"/>
         <v>-5.0912805994066161</v>
       </c>
-      <c r="AA27">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB27">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="10"/>
         <v>-0.90871940059338385</v>
       </c>
-      <c r="AD27">
-        <f t="shared" si="17"/>
+      <c r="AE27">
+        <f t="shared" si="18"/>
         <v>-2.5261582017801629</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>3</v>
-      </c>
-      <c r="AF27">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG27">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>25</v>
       </c>
-      <c r="AI27">
-        <f t="shared" si="12"/>
+      <c r="AJ27">
+        <v>70</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="13"/>
         <v>-4.2547683596440038</v>
       </c>
-      <c r="AJ27">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
       <c r="AL27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="14"/>
         <v>-1.7452316403559962</v>
       </c>
-      <c r="AM27">
-        <f t="shared" si="19"/>
+      <c r="AO27">
+        <f t="shared" si="20"/>
         <v>-6.7618531228479242</v>
       </c>
-      <c r="AN27">
+      <c r="AP27">
         <v>8</v>
       </c>
-      <c r="AO27">
-        <f t="shared" si="14"/>
+      <c r="AQ27">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP27">
-        <f t="shared" si="15"/>
+      <c r="AR27">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -28114,77 +28867,84 @@
         <v>350</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>348.8</v>
       </c>
       <c r="Y28" s="1">
         <v>26</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="9"/>
         <v>-3.2912805994066048</v>
       </c>
-      <c r="AA28">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB28">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="10"/>
         <v>0.89128059940662752</v>
       </c>
-      <c r="AD28">
-        <f t="shared" si="17"/>
+      <c r="AE28">
+        <f t="shared" si="18"/>
         <v>-1.6348776023735354</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>4</v>
-      </c>
-      <c r="AF28">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG28">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>26</v>
       </c>
-      <c r="AI28">
-        <f t="shared" si="12"/>
+      <c r="AJ28">
+        <v>71</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="13"/>
         <v>-2.4547683596439924</v>
       </c>
-      <c r="AJ28">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
       <c r="AL28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="14"/>
         <v>5.4768359644015163E-2</v>
       </c>
-      <c r="AM28">
-        <f t="shared" si="19"/>
+      <c r="AO28">
+        <f t="shared" si="20"/>
         <v>-6.707084763203909</v>
       </c>
-      <c r="AN28">
+      <c r="AP28">
         <v>9</v>
       </c>
-      <c r="AO28">
-        <f t="shared" si="14"/>
+      <c r="AQ28">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP28">
-        <f t="shared" si="15"/>
+      <c r="AR28">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -28258,77 +29018,84 @@
         <v>340</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>338.4</v>
       </c>
       <c r="Y29" s="1">
         <v>27</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="9"/>
         <v>-13.691280599406639</v>
       </c>
-      <c r="AA29">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB29">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC29">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="10"/>
         <v>-9.5087194005934066</v>
       </c>
-      <c r="AD29">
-        <f t="shared" si="17"/>
+      <c r="AE29">
+        <f t="shared" si="18"/>
         <v>-11.143597002966942</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>5</v>
-      </c>
-      <c r="AF29">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG29">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>27</v>
       </c>
-      <c r="AI29">
-        <f t="shared" si="12"/>
+      <c r="AJ29">
+        <v>72</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="13"/>
         <v>-12.854768359644027</v>
       </c>
-      <c r="AJ29">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
       <c r="AL29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="14"/>
         <v>-10.345231640356019</v>
       </c>
-      <c r="AM29">
-        <f t="shared" si="19"/>
+      <c r="AO29">
+        <f t="shared" si="20"/>
         <v>-17.052316403559928</v>
       </c>
-      <c r="AN29">
+      <c r="AP29">
         <v>10</v>
       </c>
-      <c r="AO29">
-        <f t="shared" si="14"/>
+      <c r="AQ29">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP29">
-        <f t="shared" si="15"/>
+      <c r="AR29">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -28402,77 +29169,84 @@
         <v>349</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>347.8</v>
       </c>
       <c r="Y30" s="1">
         <v>28</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="9"/>
         <v>-4.2912805994066048</v>
       </c>
-      <c r="AA30">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB30">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC30">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="10"/>
         <v>-0.10871940059337248</v>
       </c>
-      <c r="AD30">
-        <f t="shared" si="17"/>
+      <c r="AE30">
+        <f t="shared" si="18"/>
         <v>-11.252316403560314</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>6</v>
-      </c>
-      <c r="AF30">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG30">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>28</v>
       </c>
-      <c r="AI30">
-        <f t="shared" si="12"/>
+      <c r="AJ30">
+        <v>73</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="13"/>
         <v>-3.4547683596439924</v>
       </c>
-      <c r="AJ30">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
       <c r="AL30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="14"/>
         <v>-0.94523164035598484</v>
       </c>
-      <c r="AM30">
-        <f t="shared" si="19"/>
+      <c r="AO30">
+        <f t="shared" si="20"/>
         <v>-17.997548043915913</v>
       </c>
-      <c r="AN30">
+      <c r="AP30">
         <v>11</v>
       </c>
-      <c r="AO30">
-        <f t="shared" si="14"/>
+      <c r="AQ30">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP30">
-        <f t="shared" si="15"/>
+      <c r="AR30">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -28546,77 +29320,84 @@
         <v>348</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>347.6</v>
       </c>
       <c r="Y31" s="1">
         <v>29</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="9"/>
         <v>-4.4912805994065934</v>
       </c>
-      <c r="AA31">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB31">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC31">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="10"/>
         <v>-0.30871940059336112</v>
       </c>
-      <c r="AD31">
-        <f t="shared" si="17"/>
+      <c r="AE31">
+        <f t="shared" si="18"/>
         <v>-11.561035804153676</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>7</v>
-      </c>
-      <c r="AF31">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG31">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>29</v>
       </c>
-      <c r="AI31">
-        <f t="shared" si="12"/>
+      <c r="AJ31">
+        <v>74</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="13"/>
         <v>-3.6547683596439811</v>
       </c>
-      <c r="AJ31">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK31">
-        <v>0</v>
-      </c>
       <c r="AL31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="14"/>
         <v>-1.1452316403559735</v>
       </c>
-      <c r="AM31">
-        <f t="shared" si="19"/>
+      <c r="AO31">
+        <f t="shared" si="20"/>
         <v>-19.142779684271886</v>
       </c>
-      <c r="AN31">
+      <c r="AP31">
         <v>12</v>
       </c>
-      <c r="AO31">
-        <f t="shared" si="14"/>
+      <c r="AQ31">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP31">
-        <f t="shared" si="15"/>
+      <c r="AR31">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -28690,77 +29471,84 @@
         <v>347</v>
       </c>
       <c r="X32" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>346</v>
       </c>
       <c r="Y32" s="1">
         <v>30</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="1">
         <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="9"/>
         <v>-6.0912805994066161</v>
       </c>
-      <c r="AA32">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB32">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="10"/>
         <v>-1.9087194005933839</v>
       </c>
-      <c r="AD32">
-        <f t="shared" si="17"/>
+      <c r="AE32">
+        <f t="shared" si="18"/>
         <v>-13.469755204747059</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>8</v>
-      </c>
-      <c r="AF32">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG32">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>30</v>
       </c>
-      <c r="AI32">
-        <f t="shared" si="12"/>
+      <c r="AJ32">
+        <v>75</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="13"/>
         <v>-5.2547683596440038</v>
       </c>
-      <c r="AJ32">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
       <c r="AL32">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="14"/>
         <v>-2.7452316403559962</v>
       </c>
-      <c r="AM32">
-        <f t="shared" si="19"/>
+      <c r="AO32">
+        <f t="shared" si="20"/>
         <v>-21.888011324627882</v>
       </c>
-      <c r="AN32">
+      <c r="AP32">
         <v>13</v>
       </c>
-      <c r="AO32">
-        <f t="shared" si="14"/>
+      <c r="AQ32">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP32">
-        <f t="shared" si="15"/>
+      <c r="AR32">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -28834,77 +29622,84 @@
         <v>349</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>347.6</v>
       </c>
       <c r="Y33" s="1">
         <v>31</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="9"/>
         <v>-4.4912805994065934</v>
       </c>
-      <c r="AA33">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB33">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="10"/>
         <v>-0.30871940059336112</v>
       </c>
-      <c r="AD33">
-        <f t="shared" si="17"/>
+      <c r="AE33">
+        <f t="shared" si="18"/>
         <v>-13.778474605340421</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>9</v>
-      </c>
-      <c r="AF33">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG33">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>31</v>
       </c>
-      <c r="AI33">
-        <f t="shared" si="12"/>
+      <c r="AJ33">
+        <v>76</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="13"/>
         <v>-3.6547683596439811</v>
       </c>
-      <c r="AJ33">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
       <c r="AL33">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="14"/>
         <v>-1.1452316403559735</v>
       </c>
-      <c r="AM33">
-        <f t="shared" si="19"/>
+      <c r="AO33">
+        <f t="shared" si="20"/>
         <v>-23.033242964983856</v>
       </c>
-      <c r="AN33">
+      <c r="AP33">
         <v>14</v>
       </c>
-      <c r="AO33">
-        <f t="shared" si="14"/>
+      <c r="AQ33">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP33">
-        <f t="shared" si="15"/>
+      <c r="AR33">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -28978,77 +29773,84 @@
         <v>348</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>346.6</v>
       </c>
       <c r="Y34" s="1">
         <v>32</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="1">
         <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="9"/>
         <v>-5.4912805994065934</v>
       </c>
-      <c r="AA34">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB34">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC34">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="10"/>
         <v>-1.3087194005933611</v>
       </c>
-      <c r="AD34">
-        <f t="shared" si="17"/>
+      <c r="AE34">
+        <f t="shared" si="18"/>
         <v>-15.087194005933782</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>10</v>
-      </c>
-      <c r="AF34">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG34">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>32</v>
       </c>
-      <c r="AI34">
-        <f t="shared" si="12"/>
+      <c r="AJ34">
+        <v>77</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="13"/>
         <v>-4.6547683596439811</v>
       </c>
-      <c r="AJ34">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK34">
-        <v>0</v>
-      </c>
       <c r="AL34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="14"/>
         <v>-2.1452316403559735</v>
       </c>
-      <c r="AM34">
-        <f t="shared" si="19"/>
+      <c r="AO34">
+        <f t="shared" si="20"/>
         <v>-25.178474605339829</v>
       </c>
-      <c r="AN34">
+      <c r="AP34">
         <v>15</v>
       </c>
-      <c r="AO34">
-        <f t="shared" si="14"/>
+      <c r="AQ34">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP34">
-        <f t="shared" si="15"/>
+      <c r="AR34">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -29122,77 +29924,84 @@
         <v>350</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>349</v>
       </c>
       <c r="Y35" s="1">
         <v>33</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="1">
         <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="9"/>
         <v>-3.0912805994066161</v>
       </c>
-      <c r="AA35">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB35">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC35">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <f t="shared" si="10"/>
         <v>1.0912805994066161</v>
       </c>
-      <c r="AD35">
-        <f t="shared" si="17"/>
+      <c r="AE35">
+        <f t="shared" si="18"/>
         <v>-13.995913406527166</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>11</v>
-      </c>
-      <c r="AF35">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG35">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH35">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>33</v>
       </c>
-      <c r="AI35">
-        <f t="shared" si="12"/>
+      <c r="AJ35">
+        <v>78</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="13"/>
         <v>-2.2547683596440038</v>
       </c>
-      <c r="AJ35">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK35">
-        <v>0</v>
-      </c>
       <c r="AL35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="14"/>
         <v>0.25476835964400379</v>
       </c>
-      <c r="AM35">
-        <f t="shared" si="19"/>
+      <c r="AO35">
+        <f t="shared" si="20"/>
         <v>-24.923706245695826</v>
       </c>
-      <c r="AN35">
+      <c r="AP35">
         <v>16</v>
       </c>
-      <c r="AO35">
-        <f t="shared" si="14"/>
+      <c r="AQ35">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP35">
-        <f t="shared" si="15"/>
+      <c r="AR35">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -29266,77 +30075,84 @@
         <v>351</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>349.8</v>
       </c>
       <c r="Y36" s="1">
         <v>34</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="1">
         <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="9"/>
         <v>-2.2912805994066048</v>
       </c>
-      <c r="AA36">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB36">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC36">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="10"/>
         <v>1.8912805994066275</v>
       </c>
-      <c r="AD36">
-        <f t="shared" si="17"/>
+      <c r="AE36">
+        <f t="shared" si="18"/>
         <v>-12.104632807120538</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>12</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG36">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH36">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>34</v>
       </c>
-      <c r="AI36">
-        <f t="shared" si="12"/>
+      <c r="AJ36">
+        <v>79</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="13"/>
         <v>-1.4547683596439924</v>
       </c>
-      <c r="AJ36">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
       <c r="AL36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="14"/>
         <v>1.0547683596440152</v>
       </c>
-      <c r="AM36">
-        <f t="shared" si="19"/>
+      <c r="AO36">
+        <f t="shared" si="20"/>
         <v>-23.86893788605181</v>
       </c>
-      <c r="AN36">
+      <c r="AP36">
         <v>17</v>
       </c>
-      <c r="AO36">
-        <f t="shared" si="14"/>
+      <c r="AQ36">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP36">
-        <f t="shared" si="15"/>
+      <c r="AR36">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -29410,77 +30226,84 @@
         <v>351</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>349.6</v>
       </c>
       <c r="Y37" s="1">
         <v>35</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="1">
         <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="9"/>
         <v>-2.4912805994065934</v>
       </c>
-      <c r="AA37">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB37">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC37">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="10"/>
         <v>1.6912805994066389</v>
       </c>
-      <c r="AD37">
-        <f t="shared" si="17"/>
+      <c r="AE37">
+        <f t="shared" si="18"/>
         <v>-10.413352207713899</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>13</v>
-      </c>
-      <c r="AF37">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG37">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH37">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>35</v>
       </c>
-      <c r="AI37">
-        <f t="shared" si="12"/>
+      <c r="AJ37">
+        <v>80</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="13"/>
         <v>-1.6547683596439811</v>
       </c>
-      <c r="AJ37">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
       <c r="AL37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="14"/>
         <v>0.85476835964402653</v>
       </c>
-      <c r="AM37">
-        <f t="shared" si="19"/>
+      <c r="AO37">
+        <f t="shared" si="20"/>
         <v>-23.014169526407784</v>
       </c>
-      <c r="AN37">
+      <c r="AP37">
         <v>18</v>
       </c>
-      <c r="AO37">
-        <f t="shared" si="14"/>
+      <c r="AQ37">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP37">
-        <f t="shared" si="15"/>
+      <c r="AR37">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -29554,77 +30377,84 @@
         <v>350</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>348</v>
       </c>
       <c r="Y38" s="1">
         <v>36</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="9"/>
         <v>-4.0912805994066161</v>
       </c>
-      <c r="AA38">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB38">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC38">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="10"/>
         <v>9.1280599406616147E-2</v>
       </c>
-      <c r="AD38">
-        <f t="shared" si="17"/>
+      <c r="AE38">
+        <f t="shared" si="18"/>
         <v>-10.322071608307283</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>14</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG38">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>36</v>
       </c>
-      <c r="AI38">
-        <f t="shared" si="12"/>
+      <c r="AJ38">
+        <v>81</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="13"/>
         <v>-3.2547683596440038</v>
       </c>
-      <c r="AJ38">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK38">
-        <v>0</v>
-      </c>
       <c r="AL38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="14"/>
         <v>-0.74523164035599621</v>
       </c>
-      <c r="AM38">
-        <f t="shared" si="19"/>
+      <c r="AO38">
+        <f t="shared" si="20"/>
         <v>-23.75940116676378</v>
       </c>
-      <c r="AN38">
+      <c r="AP38">
         <v>19</v>
       </c>
-      <c r="AO38">
-        <f t="shared" si="14"/>
+      <c r="AQ38">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP38">
-        <f t="shared" si="15"/>
+      <c r="AR38">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -29656,7 +30486,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" ref="L39:L47" si="21">IF(K39=0,0,COUNTIF(K39:K39,"&lt;&gt;0"))</f>
+        <f t="shared" ref="L39:L47" si="22">IF(K39=0,0,COUNTIF(K39:K39,"&lt;&gt;0"))</f>
         <v>0</v>
       </c>
       <c r="M39">
@@ -29698,77 +30528,84 @@
         <v>350</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>349</v>
       </c>
       <c r="Y39" s="1">
         <v>37</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="1">
         <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="9"/>
         <v>-3.0912805994066161</v>
       </c>
-      <c r="AA39">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB39">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC39">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="10"/>
         <v>1.0912805994066161</v>
       </c>
-      <c r="AD39">
-        <f t="shared" si="17"/>
+      <c r="AE39">
+        <f t="shared" si="18"/>
         <v>-9.2307910089006668</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>15</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG39">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH39">
+      <c r="AI39">
         <v>37</v>
       </c>
-      <c r="AI39">
-        <f t="shared" si="12"/>
+      <c r="AJ39">
+        <v>82</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="13"/>
         <v>-2.2547683596440038</v>
       </c>
-      <c r="AJ39">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
       <c r="AL39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="14"/>
         <v>0.25476835964400379</v>
       </c>
-      <c r="AM39">
-        <f t="shared" si="19"/>
+      <c r="AO39">
+        <f t="shared" si="20"/>
         <v>-23.504632807119776</v>
       </c>
-      <c r="AN39">
+      <c r="AP39">
         <v>20</v>
       </c>
-      <c r="AO39">
-        <f t="shared" si="14"/>
+      <c r="AQ39">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP39">
-        <f t="shared" si="15"/>
+      <c r="AR39">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -29800,7 +30637,7 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M40">
@@ -29842,77 +30679,84 @@
         <v>347</v>
       </c>
       <c r="X40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>346.6</v>
       </c>
       <c r="Y40" s="1">
         <v>38</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="1">
         <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="9"/>
         <v>-5.4912805994065934</v>
       </c>
-      <c r="AA40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB40">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="10"/>
         <v>-1.3087194005933611</v>
       </c>
-      <c r="AD40">
-        <f t="shared" si="17"/>
+      <c r="AE40">
+        <f t="shared" si="18"/>
         <v>-10.539510409494028</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>16</v>
-      </c>
-      <c r="AF40">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG40">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH40">
+      <c r="AI40">
         <v>38</v>
       </c>
-      <c r="AI40">
-        <f t="shared" si="12"/>
+      <c r="AJ40">
+        <v>83</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="13"/>
         <v>-4.6547683596439811</v>
       </c>
-      <c r="AJ40">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
       <c r="AL40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="14"/>
         <v>-2.1452316403559735</v>
       </c>
-      <c r="AM40">
-        <f t="shared" si="19"/>
+      <c r="AO40">
+        <f t="shared" si="20"/>
         <v>-25.64986444747575</v>
       </c>
-      <c r="AN40">
+      <c r="AP40">
         <v>21</v>
       </c>
-      <c r="AO40">
-        <f t="shared" si="14"/>
+      <c r="AQ40">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP40">
-        <f t="shared" si="15"/>
+      <c r="AR40">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -29944,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M41">
@@ -29986,77 +30830,84 @@
         <v>352</v>
       </c>
       <c r="X41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>350.4</v>
       </c>
       <c r="Y41" s="1">
         <v>39</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="1">
         <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="9"/>
         <v>-1.6912805994066389</v>
       </c>
-      <c r="AA41">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB41">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC41">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="10"/>
         <v>2.4912805994065934</v>
       </c>
-      <c r="AD41">
-        <f t="shared" si="17"/>
+      <c r="AE41">
+        <f t="shared" si="18"/>
         <v>-8.0482298100874345</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>17</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG41">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH41">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH41">
+      <c r="AI41">
         <v>39</v>
       </c>
-      <c r="AI41">
-        <f t="shared" si="12"/>
+      <c r="AJ41">
+        <v>84</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="13"/>
         <v>-0.85476835964402653</v>
       </c>
-      <c r="AJ41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
       <c r="AL41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="14"/>
         <v>1.6547683596439811</v>
       </c>
-      <c r="AM41">
-        <f t="shared" si="19"/>
+      <c r="AO41">
+        <f t="shared" si="20"/>
         <v>-23.995096087831769</v>
       </c>
-      <c r="AN41">
+      <c r="AP41">
         <v>22</v>
       </c>
-      <c r="AO41">
-        <f t="shared" si="14"/>
+      <c r="AQ41">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP41">
-        <f t="shared" si="15"/>
+      <c r="AR41">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -30088,7 +30939,7 @@
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M42">
@@ -30130,77 +30981,84 @@
         <v>351</v>
       </c>
       <c r="X42" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>348.6</v>
       </c>
       <c r="Y42" s="1">
         <v>40</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="1">
         <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="9"/>
         <v>-3.4912805994065934</v>
       </c>
-      <c r="AA42">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
       <c r="AB42">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC42">
-        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="10"/>
         <v>0.69128059940663888</v>
       </c>
-      <c r="AD42">
-        <f t="shared" si="17"/>
+      <c r="AE42">
+        <f t="shared" si="18"/>
         <v>-7.3569492106807957</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>18</v>
-      </c>
-      <c r="AF42">
-        <f t="shared" si="10"/>
-        <v>20.912805994066296</v>
       </c>
       <c r="AG42">
         <f t="shared" si="11"/>
+        <v>20.912805994066296</v>
+      </c>
+      <c r="AH42">
+        <f t="shared" si="12"/>
         <v>-20.912805994066296</v>
       </c>
-      <c r="AH42">
+      <c r="AI42">
         <v>40</v>
       </c>
-      <c r="AI42">
-        <f t="shared" si="12"/>
+      <c r="AJ42">
+        <v>85</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="13"/>
         <v>-2.6547683596439811</v>
       </c>
-      <c r="AJ42">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
       <c r="AL42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="14"/>
         <v>-0.14523164035597347</v>
       </c>
-      <c r="AM42">
-        <f t="shared" si="19"/>
+      <c r="AO42">
+        <f t="shared" si="20"/>
         <v>-24.140327728187742</v>
       </c>
-      <c r="AN42">
+      <c r="AP42">
         <v>23</v>
       </c>
-      <c r="AO42">
-        <f t="shared" si="14"/>
+      <c r="AQ42">
+        <f t="shared" si="15"/>
         <v>29.277928391692811</v>
       </c>
-      <c r="AP42">
-        <f t="shared" si="15"/>
+      <c r="AR42">
+        <f t="shared" si="16"/>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -30232,7 +31090,7 @@
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M43">
@@ -30256,7 +31114,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -30288,7 +31146,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M44">
@@ -30312,7 +31170,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -30344,7 +31202,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M45">
@@ -30368,7 +31226,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -30400,7 +31258,7 @@
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M46">
@@ -30424,7 +31282,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -30456,7 +31314,7 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M47">
@@ -30481,9 +31339,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="Z1:AG1"/>
+    <mergeCell ref="Z1:AH1"/>
+    <mergeCell ref="AJ1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30495,7 +31354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81654DD7-7E73-4104-9966-9A1B2670B0D2}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AI44" sqref="AI44"/>
     </sheetView>
   </sheetViews>
@@ -30516,46 +31375,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="1"/>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12" t="s">
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12" t="s">
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12" t="s">
+      <c r="AJ1" s="15"/>
+      <c r="AK1" s="15"/>
+      <c r="AL1" s="15"/>
+      <c r="AM1" s="15"/>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
+      <c r="AP1" s="15"/>
+      <c r="AQ1" s="15"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="15"/>
+      <c r="AT1" s="15"/>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
@@ -30729,7 +31588,7 @@
         <v>351</v>
       </c>
       <c r="U3" s="1">
-        <f t="shared" ref="U3:V42" si="0">AVERAGE(P3:T3)</f>
+        <f t="shared" ref="U3:U42" si="0">AVERAGE(P3:T3)</f>
         <v>349.2</v>
       </c>
       <c r="V3" s="1">
@@ -31161,7 +32020,7 @@
         <f t="shared" si="1"/>
         <v>355.2</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="11" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="7">
@@ -31316,7 +32175,7 @@
         <f t="shared" si="1"/>
         <v>351.4</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="7">
@@ -32090,7 +32949,7 @@
       <c r="I12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="10" t="s">
         <v>52</v>
       </c>
       <c r="K12" s="8" t="s">
@@ -36891,7 +37750,7 @@
       <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="9">
         <f>PMT(B3/12,B2,B1)</f>
         <v>-900.00001221041475</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571A088B-1851-4D67-AF97-B1D0675B19B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A6EAF-D1CC-479C-B922-4DE4457A427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -20506,16 +20506,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>591909</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>210908</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>146958</xdr:rowOff>
+      <xdr:colOff>526141</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>156030</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20543,15 +20543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:colOff>553357</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>195036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>306161</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
+      <xdr:colOff>260804</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>192315</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20581,15 +20581,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:colOff>517071</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>187778</xdr:rowOff>
+      <xdr:colOff>319768</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>124278</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20619,15 +20619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>421822</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>467179</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>204107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>224519</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:colOff>269876</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>201386</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20960,13 +20960,13 @@
       <selection activeCell="AD2" sqref="AD2:AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
     <col min="14" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -20976,7 +20976,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -21076,7 +21076,7 @@
         <v>H_0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21195,7 +21195,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21284,7 +21284,7 @@
         <v>-5.3825611988132209</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21372,7 +21372,7 @@
         <v>-14.273841798219848</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21461,7 +21461,7 @@
         <v>-22.765122397626442</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21550,7 +21550,7 @@
         <v>-25.656402997033069</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>-28.347683596439708</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>-25.838964195846302</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21815,7 +21815,7 @@
         <v>-28.930244795252918</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21904,7 +21904,7 @@
         <v>-30.621525394659557</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21986,7 +21986,7 @@
         <v>-32.912805994066161</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -22068,7 +22068,7 @@
         <v>-35.6040865934728</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -22150,7 +22150,7 @@
         <v>-38.495367192879428</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>-43.586647792286044</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -22317,7 +22317,7 @@
         <v>-47.877928391692649</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -22399,7 +22399,7 @@
         <v>-49.569208991099288</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -22481,7 +22481,7 @@
         <v>-51.860489590505892</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>-54.151770189912497</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -22645,7 +22645,7 @@
         <v>-59.643050789319091</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -22727,7 +22727,7 @@
         <v>-63.134331388725684</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -22809,7 +22809,7 @@
         <v>-64.625611988132277</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -22891,7 +22891,7 @@
         <v>-68.916892587538882</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -22973,7 +22973,7 @@
         <v>-72.608173186945521</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -23055,7 +23055,7 @@
         <v>-77.29945378635216</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -23137,7 +23137,7 @@
         <v>-82.590734385758765</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>-87.682014985165381</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -23301,7 +23301,7 @@
         <v>-90.973295584571986</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -23383,7 +23383,7 @@
         <v>-104.66457618397862</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>-108.95585678338523</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>-113.44713738279182</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -23629,7 +23629,7 @@
         <v>-119.53841798219844</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -23711,7 +23711,7 @@
         <v>-124.02969858160503</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>-129.52097918101163</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -23875,7 +23875,7 @@
         <v>-132.61225978041824</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -23957,7 +23957,7 @@
         <v>-134.90354037982485</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -24039,7 +24039,7 @@
         <v>-137.39482097923144</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -24121,7 +24121,7 @@
         <v>-141.48610157863806</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -24203,7 +24203,7 @@
         <v>-144.57738217804467</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -24285,7 +24285,7 @@
         <v>-150.06866277745127</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -24367,7 +24367,7 @@
         <v>-151.7599433768579</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -24449,7 +24449,7 @@
         <v>-155.2512239762645</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -24484,7 +24484,7 @@
         <v>-138.1425045756713</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -24519,7 +24519,7 @@
         <v>-141.4337851750779</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -24554,7 +24554,7 @@
         <v>-145.72506577448451</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -24589,7 +24589,7 @@
         <v>-149.2163463738911</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -24642,24 +24642,24 @@
       <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.6328125" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
     <col min="14" max="17" width="9" customWidth="1"/>
     <col min="19" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.375" customWidth="1"/>
-    <col min="27" max="27" width="12.25" customWidth="1"/>
-    <col min="30" max="30" width="11.625" customWidth="1"/>
-    <col min="37" max="37" width="11.5" customWidth="1"/>
-    <col min="40" max="40" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="10.36328125" customWidth="1"/>
+    <col min="27" max="27" width="12.26953125" customWidth="1"/>
+    <col min="30" max="30" width="11.6328125" customWidth="1"/>
+    <col min="37" max="37" width="11.453125" customWidth="1"/>
+    <col min="40" max="40" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.4">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -24691,7 +24691,7 @@
       <c r="AQ1" s="15"/>
       <c r="AR1" s="15"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -24840,7 +24840,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>20.912805994066296</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25182,7 +25182,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -25547,7 +25547,7 @@
         <v>29.277928391692811</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -25864,7 +25864,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -26022,7 +26022,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -26173,7 +26173,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -26331,7 +26331,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -26489,7 +26489,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -26804,7 +26804,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -27118,7 +27118,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -27276,7 +27276,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -27434,7 +27434,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -27585,7 +27585,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -27736,7 +27736,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -27887,7 +27887,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -28038,7 +28038,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -28189,7 +28189,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -28340,7 +28340,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -28491,7 +28491,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -28642,7 +28642,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -28793,7 +28793,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -28944,7 +28944,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -29246,7 +29246,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -29397,7 +29397,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -29548,7 +29548,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -29699,7 +29699,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -30001,7 +30001,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -30152,7 +30152,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -30303,7 +30303,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -30454,7 +30454,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -30605,7 +30605,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -30756,7 +30756,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -30907,7 +30907,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -31058,7 +31058,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -31114,7 +31114,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -31226,7 +31226,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -31282,7 +31282,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -31354,27 +31354,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81654DD7-7E73-4104-9966-9A1B2670B0D2}">
   <dimension ref="A1:AV47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI44" sqref="AI44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" customWidth="1"/>
     <col min="16" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" customWidth="1"/>
-    <col min="23" max="23" width="13.25" customWidth="1"/>
-    <col min="26" max="26" width="11.875" customWidth="1"/>
-    <col min="29" max="29" width="12.375" customWidth="1"/>
-    <col min="32" max="32" width="11.625" customWidth="1"/>
-    <col min="35" max="35" width="11.5" customWidth="1"/>
-    <col min="38" max="38" width="11.375" customWidth="1"/>
-    <col min="41" max="41" width="11.75" customWidth="1"/>
-    <col min="44" max="44" width="11.625" customWidth="1"/>
+    <col min="21" max="21" width="11.36328125" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" customWidth="1"/>
+    <col min="26" max="26" width="11.90625" customWidth="1"/>
+    <col min="29" max="29" width="12.36328125" customWidth="1"/>
+    <col min="32" max="32" width="11.6328125" customWidth="1"/>
+    <col min="35" max="35" width="11.453125" customWidth="1"/>
+    <col min="38" max="38" width="11.36328125" customWidth="1"/>
+    <col min="41" max="41" width="11.7265625" customWidth="1"/>
+    <col min="44" max="44" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -31416,7 +31416,7 @@
       <c r="AS1" s="15"/>
       <c r="AT1" s="15"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -31539,7 +31539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -31691,7 +31691,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -31843,7 +31843,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -31997,7 +31997,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -32152,7 +32152,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -32307,7 +32307,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -32461,7 +32461,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -32616,7 +32616,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -32768,7 +32768,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -32920,7 +32920,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -33086,7 +33086,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -33258,7 +33258,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -33430,7 +33430,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -33602,7 +33602,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -33774,7 +33774,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -33924,7 +33924,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -34070,7 +34070,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -34216,7 +34216,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -34361,7 +34361,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -34506,7 +34506,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -34651,7 +34651,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -34796,7 +34796,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -34941,7 +34941,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -35086,7 +35086,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -35231,7 +35231,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -35376,7 +35376,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -35521,7 +35521,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -35666,7 +35666,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -35811,7 +35811,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -35956,7 +35956,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -36101,7 +36101,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -36246,7 +36246,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -36391,7 +36391,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -36536,7 +36536,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -36826,7 +36826,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -36971,7 +36971,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -37116,7 +37116,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -37261,7 +37261,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -37406,7 +37406,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -37551,7 +37551,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -37575,7 +37575,7 @@
         <v>348.4</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -37599,7 +37599,7 @@
         <v>348.8</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -37623,7 +37623,7 @@
         <v>347.8</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -37647,7 +37647,7 @@
         <v>348.6</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -37694,13 +37694,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -37714,7 +37714,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -37728,7 +37728,7 @@
         <v>4.8092838867208458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -37746,7 +37746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>39</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96A6EAF-D1CC-479C-B922-4DE4457A427B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E673C5A-CD4D-4CC3-8BB3-786FCA790E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
   <si>
     <r>
       <t xml:space="preserve">                 </t>
@@ -636,7 +636,18 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -20393,16 +20404,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>13605</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2399</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>104055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>13608</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>36019</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20429,16 +20440,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>166008</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>164087</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>109978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>336178</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12007</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20465,16 +20476,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>73957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>726781</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>44022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20960,13 +20971,13 @@
       <selection activeCell="AD2" sqref="AD2:AM3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="14" max="18" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -20976,7 +20987,7 @@
       <c r="F1" s="14"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -21076,7 +21087,7 @@
         <v>H_0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -21195,7 +21206,7 @@
         <v>-6.7231990657556029</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -21284,7 +21295,7 @@
         <v>-5.3825611988132209</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -21372,7 +21383,7 @@
         <v>-14.273841798219848</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -21461,7 +21472,7 @@
         <v>-22.765122397626442</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -21550,7 +21561,7 @@
         <v>-25.656402997033069</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -21638,7 +21649,7 @@
         <v>-28.347683596439708</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -21726,7 +21737,7 @@
         <v>-25.838964195846302</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -21815,7 +21826,7 @@
         <v>-28.930244795252918</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -21904,7 +21915,7 @@
         <v>-30.621525394659557</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -21986,7 +21997,7 @@
         <v>-32.912805994066161</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -22068,7 +22079,7 @@
         <v>-35.6040865934728</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -22150,7 +22161,7 @@
         <v>-38.495367192879428</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -22232,7 +22243,7 @@
         <v>-43.586647792286044</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -22317,7 +22328,7 @@
         <v>-47.877928391692649</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -22399,7 +22410,7 @@
         <v>-49.569208991099288</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -22481,7 +22492,7 @@
         <v>-51.860489590505892</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -22563,7 +22574,7 @@
         <v>-54.151770189912497</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -22645,7 +22656,7 @@
         <v>-59.643050789319091</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -22727,7 +22738,7 @@
         <v>-63.134331388725684</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -22809,7 +22820,7 @@
         <v>-64.625611988132277</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -22891,7 +22902,7 @@
         <v>-68.916892587538882</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -22973,7 +22984,7 @@
         <v>-72.608173186945521</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -23055,7 +23066,7 @@
         <v>-77.29945378635216</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -23137,7 +23148,7 @@
         <v>-82.590734385758765</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -23219,7 +23230,7 @@
         <v>-87.682014985165381</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -23301,7 +23312,7 @@
         <v>-90.973295584571986</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -23383,7 +23394,7 @@
         <v>-104.66457618397862</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -23465,7 +23476,7 @@
         <v>-108.95585678338523</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -23547,7 +23558,7 @@
         <v>-113.44713738279182</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -23629,7 +23640,7 @@
         <v>-119.53841798219844</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -23711,7 +23722,7 @@
         <v>-124.02969858160503</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -23793,7 +23804,7 @@
         <v>-129.52097918101163</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -23875,7 +23886,7 @@
         <v>-132.61225978041824</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -23957,7 +23968,7 @@
         <v>-134.90354037982485</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -24039,7 +24050,7 @@
         <v>-137.39482097923144</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -24121,7 +24132,7 @@
         <v>-141.48610157863806</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -24203,7 +24214,7 @@
         <v>-144.57738217804467</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -24285,7 +24296,7 @@
         <v>-150.06866277745127</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -24367,7 +24378,7 @@
         <v>-151.7599433768579</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -24449,7 +24460,7 @@
         <v>-155.2512239762645</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -24484,7 +24495,7 @@
         <v>-138.1425045756713</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -24519,7 +24530,7 @@
         <v>-141.4337851750779</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -24554,7 +24565,7 @@
         <v>-145.72506577448451</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -24589,7 +24600,7 @@
         <v>-149.2163463738911</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -24638,28 +24649,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D502F58C-6151-4AA4-A07E-4B16369BF79A}">
   <dimension ref="A1:AZ47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="13.08984375" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
     <col min="14" max="17" width="9" customWidth="1"/>
-    <col min="19" max="23" width="0" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.36328125" customWidth="1"/>
-    <col min="27" max="27" width="12.26953125" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" customWidth="1"/>
-    <col min="37" max="37" width="11.453125" customWidth="1"/>
-    <col min="40" max="40" width="11.453125" customWidth="1"/>
+    <col min="19" max="23" width="9" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="10.375" customWidth="1"/>
+    <col min="27" max="27" width="12.25" customWidth="1"/>
+    <col min="30" max="30" width="11.625" customWidth="1"/>
+    <col min="37" max="37" width="11.5" customWidth="1"/>
+    <col min="40" max="40" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -24691,7 +24702,7 @@
       <c r="AQ1" s="15"/>
       <c r="AR1" s="15"/>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -24840,7 +24851,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -24969,7 +24980,7 @@
         <v>46</v>
       </c>
       <c r="AK3">
-        <f>X3-($I$14+$I$17)</f>
+        <f>X3-($I$24+$I$27)</f>
         <v>-2.0547683596440152</v>
       </c>
       <c r="AL3">
@@ -24980,7 +24991,7 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <f>X3-($I$14-$I$17)</f>
+        <f>X3-($I$24-$I$27)</f>
         <v>0.45476835964399243</v>
       </c>
       <c r="AO3">
@@ -24991,11 +25002,11 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <f>$I$18</f>
+        <f>$I$28</f>
         <v>29.277928391692811</v>
       </c>
       <c r="AR3">
-        <f>-$I$18</f>
+        <f>-$I$28</f>
         <v>-29.277928391692811</v>
       </c>
       <c r="AS3">
@@ -25023,7 +25034,7 @@
         <v>20.912805994066296</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -25152,7 +25163,7 @@
         <v>47</v>
       </c>
       <c r="AK4">
-        <f t="shared" ref="AK4:AK42" si="13">X4-($I$14+$I$17)</f>
+        <f t="shared" ref="AK4:AK42" si="13">X4-($I$24+$I$27)</f>
         <v>-1.6547683596439811</v>
       </c>
       <c r="AL4">
@@ -25163,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <f t="shared" ref="AN4:AN42" si="14">X4-($I$14-$I$17)</f>
+        <f t="shared" ref="AN4:AN42" si="14">X4-($I$24-$I$27)</f>
         <v>0.85476835964402653</v>
       </c>
       <c r="AO4">
@@ -25174,15 +25185,15 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ42" si="15">$I$18</f>
+        <f t="shared" ref="AQ4:AQ42" si="15">$I$28</f>
         <v>29.277928391692811</v>
       </c>
       <c r="AR4">
-        <f t="shared" ref="AR4:AR42" si="16">-$I$18</f>
+        <f t="shared" ref="AR4:AR42" si="16">-$I$28</f>
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -25340,7 +25351,7 @@
         <v>-29.277928391692811</v>
       </c>
       <c r="AS5" t="str" cm="1">
-        <f t="array" ref="AS5:AZ6">TRANSPOSE(H11:I18)</f>
+        <f t="array" ref="AS5:AZ6">TRANSPOSE(H21:I28)</f>
         <v>X_bar_bar</v>
       </c>
       <c r="AT5" t="str">
@@ -25365,7 +25376,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -25547,7 +25558,7 @@
         <v>29.277928391692811</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -25705,7 +25716,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -25864,7 +25875,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -26022,7 +26033,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -26045,6 +26056,7 @@
         <f t="shared" si="2"/>
         <v>351.8</v>
       </c>
+      <c r="H10" s="8"/>
       <c r="J10">
         <f t="shared" si="3"/>
         <v>-0.29128059940660478</v>
@@ -26173,7 +26185,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -26196,7 +26208,7 @@
         <f t="shared" si="2"/>
         <v>353.4</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I11">
@@ -26331,7 +26343,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -26489,7 +26501,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -26647,7 +26659,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -26673,8 +26685,9 @@
       <c r="H14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="1">
-        <v>350</v>
+      <c r="I14" s="7">
+        <f>I5-I8+N28/O28</f>
+        <v>345.26666666666665</v>
       </c>
       <c r="J14">
         <f t="shared" si="3"/>
@@ -26804,7 +26817,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -26830,8 +26843,8 @@
       <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="1">
-        <v>0.3</v>
+      <c r="I15" s="7">
+        <v>0.5</v>
       </c>
       <c r="J15">
         <f t="shared" si="3"/>
@@ -26961,7 +26974,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -26987,8 +27000,8 @@
       <c r="H16" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="1">
-        <v>7</v>
+      <c r="I16" s="7">
+        <v>5</v>
       </c>
       <c r="J16">
         <f t="shared" si="3"/>
@@ -27118,7 +27131,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -27141,12 +27154,12 @@
         <f t="shared" si="2"/>
         <v>352.6</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <f>I15*I13</f>
-        <v>1.2547683596439776</v>
+        <v>2.0912805994066295</v>
       </c>
       <c r="J17">
         <f t="shared" si="3"/>
@@ -27276,7 +27289,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -27299,12 +27312,12 @@
         <f t="shared" si="2"/>
         <v>351</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="I18">
         <f>I16*I13</f>
-        <v>29.277928391692811</v>
+        <v>20.912805994066296</v>
       </c>
       <c r="J18">
         <f t="shared" si="3"/>
@@ -27434,7 +27447,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -27457,6 +27470,7 @@
         <f t="shared" si="2"/>
         <v>352.8</v>
       </c>
+      <c r="H19" s="8"/>
       <c r="J19">
         <f t="shared" si="3"/>
         <v>0.70871940059339522</v>
@@ -27585,7 +27599,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -27736,7 +27750,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -27759,6 +27773,13 @@
         <f t="shared" si="2"/>
         <v>345.4</v>
       </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(G3:G47)</f>
+        <v>348.50666666666672</v>
+      </c>
       <c r="J21">
         <f t="shared" si="3"/>
         <v>-6.6912805994066389</v>
@@ -27887,7 +27908,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -27910,6 +27931,13 @@
         <f t="shared" si="2"/>
         <v>343.6</v>
       </c>
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22">
+        <f>_xlfn.VAR.S(G3:G47)</f>
+        <v>17.493818181818209</v>
+      </c>
       <c r="J22">
         <f t="shared" si="3"/>
         <v>-8.4912805994065934</v>
@@ -28038,7 +28066,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -28061,6 +28089,13 @@
         <f t="shared" si="2"/>
         <v>345</v>
       </c>
+      <c r="H23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23">
+        <f>I22^0.5</f>
+        <v>4.1825611988132589</v>
+      </c>
       <c r="J23">
         <f t="shared" si="3"/>
         <v>-7.0912805994066161</v>
@@ -28189,7 +28224,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -28212,6 +28247,12 @@
         <f t="shared" si="2"/>
         <v>346</v>
       </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>350</v>
+      </c>
       <c r="J24">
         <f t="shared" si="3"/>
         <v>-6.0912805994066161</v>
@@ -28340,7 +28381,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -28363,6 +28404,12 @@
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
+      <c r="H25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.3</v>
+      </c>
       <c r="J25">
         <f t="shared" si="3"/>
         <v>-4.0912805994066161</v>
@@ -28491,7 +28538,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -28514,6 +28561,12 @@
         <f t="shared" si="2"/>
         <v>348.2</v>
       </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="1">
+        <v>7</v>
+      </c>
       <c r="J26">
         <f t="shared" si="3"/>
         <v>-3.8912805994066275</v>
@@ -28642,7 +28695,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -28665,6 +28718,13 @@
         <f t="shared" si="2"/>
         <v>347.4</v>
       </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27">
+        <f>I25*I23</f>
+        <v>1.2547683596439776</v>
+      </c>
       <c r="J27">
         <f t="shared" si="3"/>
         <v>-4.6912805994066389</v>
@@ -28793,7 +28853,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -28816,6 +28876,13 @@
         <f t="shared" si="2"/>
         <v>344.4</v>
       </c>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28">
+        <f>I26*I23</f>
+        <v>29.277928391692811</v>
+      </c>
       <c r="J28">
         <f t="shared" si="3"/>
         <v>-7.6912805994066389</v>
@@ -28944,7 +29011,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -29095,7 +29162,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -29246,7 +29313,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -29397,7 +29464,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -29548,7 +29615,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -29699,7 +29766,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -29850,7 +29917,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -30001,7 +30068,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -30152,7 +30219,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -30303,7 +30370,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -30454,7 +30521,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -30605,7 +30672,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -30756,7 +30823,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -30907,7 +30974,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -31058,7 +31125,7 @@
         <v>-29.277928391692811</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -31114,7 +31181,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -31170,7 +31237,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -31226,7 +31293,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -31282,7 +31349,7 @@
         <v>-20.912805994066296</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -31345,6 +31412,11 @@
     <mergeCell ref="AJ1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="N3:N47">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>-$I$9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -31355,26 +31427,26 @@
   <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.453125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="16" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="11.36328125" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" customWidth="1"/>
-    <col min="26" max="26" width="11.90625" customWidth="1"/>
-    <col min="29" max="29" width="12.36328125" customWidth="1"/>
-    <col min="32" max="32" width="11.6328125" customWidth="1"/>
-    <col min="35" max="35" width="11.453125" customWidth="1"/>
-    <col min="38" max="38" width="11.36328125" customWidth="1"/>
-    <col min="41" max="41" width="11.7265625" customWidth="1"/>
-    <col min="44" max="44" width="11.6328125" customWidth="1"/>
+    <col min="21" max="21" width="11.375" customWidth="1"/>
+    <col min="23" max="23" width="13.25" customWidth="1"/>
+    <col min="26" max="26" width="11.875" customWidth="1"/>
+    <col min="29" max="29" width="12.375" customWidth="1"/>
+    <col min="32" max="32" width="11.625" customWidth="1"/>
+    <col min="35" max="35" width="11.5" customWidth="1"/>
+    <col min="38" max="38" width="11.375" customWidth="1"/>
+    <col min="41" max="41" width="11.75" customWidth="1"/>
+    <col min="44" max="44" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
@@ -31416,7 +31488,7 @@
       <c r="AS1" s="15"/>
       <c r="AT1" s="15"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -31539,7 +31611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -31691,7 +31763,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -31843,7 +31915,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -31997,7 +32069,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -32152,7 +32224,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -32307,7 +32379,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -32461,7 +32533,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -32616,7 +32688,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -32768,7 +32840,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -32920,7 +32992,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -33086,7 +33158,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -33258,7 +33330,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -33430,7 +33502,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -33602,7 +33674,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -33774,7 +33846,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -33924,7 +33996,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -34070,7 +34142,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -34216,7 +34288,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -34361,7 +34433,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -34506,7 +34578,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -34651,7 +34723,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -34796,7 +34868,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -34941,7 +35013,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -35086,7 +35158,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -35231,7 +35303,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -35376,7 +35448,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -35521,7 +35593,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -35666,7 +35738,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -35811,7 +35883,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -35956,7 +36028,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -36101,7 +36173,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -36246,7 +36318,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -36391,7 +36463,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -36536,7 +36608,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -36681,7 +36753,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -36826,7 +36898,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -36971,7 +37043,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -37116,7 +37188,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -37261,7 +37333,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -37406,7 +37478,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -37551,7 +37623,7 @@
         <v>-1.3747594030649473</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -37575,7 +37647,7 @@
         <v>348.4</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -37599,7 +37671,7 @@
         <v>348.8</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -37623,7 +37695,7 @@
         <v>347.8</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -37647,7 +37719,7 @@
         <v>348.6</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -37694,13 +37766,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -37714,7 +37786,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -37728,7 +37800,7 @@
         <v>4.8092838867208458</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -37746,7 +37818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>

--- a/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62FECF1-FCC6-4DB3-85B4-1E7D0167E59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ACA9E3-D0CB-4F50-8FFA-C3FD4EE9A874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -7490,6 +7490,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1515146863"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -29467,8 +29468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3DEC7F-3699-4FD6-8985-CA44D5E74DBE}">
   <dimension ref="A1:AM47"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AM3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -33149,8 +33150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D502F58C-6151-4AA4-A07E-4B16369BF79A}">
   <dimension ref="A1:AZ47"/>
   <sheetViews>
-    <sheetView topLeftCell="I43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -39927,7 +39928,7 @@
   <dimension ref="A1:AM47"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI45" sqref="AI45"/>
+      <selection activeCell="AM3" sqref="AM3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -51796,7 +51797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AACE98-421A-4BFA-9135-BAF72D2C820D}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2:AC42"/>
     </sheetView>
   </sheetViews>
@@ -52132,7 +52133,7 @@
         <v>-3.6630791008900587</v>
       </c>
       <c r="Z5">
-        <f t="shared" ref="Z5:Z47" si="8">MIN(0,Y5+Z4)</f>
+        <f t="shared" ref="Z5:Z42" si="8">MIN(0,Y5+Z4)</f>
         <v>-3.6630791008900587</v>
       </c>
       <c r="AA5">

--- a/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW9/hw_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\my_homework\HW9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6ACA9E3-D0CB-4F50-8FFA-C3FD4EE9A874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9F5116-45A8-4FCA-8D63-6B92DFEAD01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{72666EC5-6C4B-40E6-8982-245031BE4D0B}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -33150,7 +33150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D502F58C-6151-4AA4-A07E-4B16369BF79A}">
   <dimension ref="A1:AZ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
@@ -51797,8 +51797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AACE98-421A-4BFA-9135-BAF72D2C820D}">
   <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:AC42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
